--- a/kikar_hamedina/Alternative Names.xlsx
+++ b/kikar_hamedina/Alternative Names.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="Helper_Query___20th_Knesset_MK_Names_and_current_roles_2016_06_11" localSheetId="2">Sheet3!$A$132:$D$181</definedName>
     <definedName name="Helper_Query___MK_Names_and_All_AltNames_2016_06_07" localSheetId="1">AltnamesFromKikar!$A$1:$E$324</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -20,7 +21,17 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Helper_Query - MK Names and All AltNames_2016_06_07" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="1" name="Helper_Query - 20th Knesset MK Names and current roles_2016_06_11" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\Users\yotam\Downloads\Helper_Query - 20th Knesset MK Names and current roles_2016_06_11.csv" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="Helper_Query - MK Names and All AltNames_2016_06_07" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Users\yotam\Downloads\Helper_Query - MK Names and All AltNames_2016_06_07.csv" comma="1">
       <textFields count="5">
         <textField/>
@@ -35,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="788">
   <si>
     <t>id</t>
   </si>
@@ -1952,6 +1963,453 @@
   </si>
   <si>
     <t>ראש ממשלה; שר החוץ; שר התקשורת; שר לשיתוף פעולה אזורי; שר הכלכלה;premier ministre;Prime Minister;Primiero Ministro</t>
+  </si>
+  <si>
+    <t>בנימין (פואד) בן-אליעזר</t>
+  </si>
+  <si>
+    <t>העבודה</t>
+  </si>
+  <si>
+    <t>אליהו ישי</t>
+  </si>
+  <si>
+    <t>ש”ס</t>
+  </si>
+  <si>
+    <t>לימור לבנת</t>
+  </si>
+  <si>
+    <t>הליכוד – ישראל ביתנו</t>
+  </si>
+  <si>
+    <t>עוזי לנדאו</t>
+  </si>
+  <si>
+    <t>ראובן ריבלין</t>
+  </si>
+  <si>
+    <t>מאיר שטרית</t>
+  </si>
+  <si>
+    <t>התנועה</t>
+  </si>
+  <si>
+    <t>מוחמד ברכה</t>
+  </si>
+  <si>
+    <t>חזית דמוקרטית לשלום ושוויון</t>
+  </si>
+  <si>
+    <t>נסים זאב</t>
+  </si>
+  <si>
+    <t>אמנון כהן</t>
+  </si>
+  <si>
+    <t>שאול מופז</t>
+  </si>
+  <si>
+    <t>קדימה</t>
+  </si>
+  <si>
+    <t>גדעון סער</t>
+  </si>
+  <si>
+    <t>עמרם מצנע</t>
+  </si>
+  <si>
+    <t>ראלב מג`אדלה</t>
+  </si>
+  <si>
+    <t>ישראל חסון</t>
+  </si>
+  <si>
+    <t>אברהם מיכאלי</t>
+  </si>
+  <si>
+    <t>אלכס מילר</t>
+  </si>
+  <si>
+    <t>חנא סוייד</t>
+  </si>
+  <si>
+    <t>יצחק אהרונוביץ</t>
+  </si>
+  <si>
+    <t>אריאל אטיאס</t>
+  </si>
+  <si>
+    <t>אבישי ברוורמן</t>
+  </si>
+  <si>
+    <t>אברהים צרצור</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> רע”מ-תע”ל</t>
+  </si>
+  <si>
+    <t>דוד רותם</t>
+  </si>
+  <si>
+    <t>לאון ליטינצקי</t>
+  </si>
+  <si>
+    <t>כרמל שאמה</t>
+  </si>
+  <si>
+    <t>פאינה (פניה) קירשנבאום</t>
+  </si>
+  <si>
+    <t>עפו אגבאריה</t>
+  </si>
+  <si>
+    <t>ניצן הורוביץ</t>
+  </si>
+  <si>
+    <t>אורי אורבך</t>
+  </si>
+  <si>
+    <t>יובל צלנר</t>
+  </si>
+  <si>
+    <t>שמעון אוחיון</t>
+  </si>
+  <si>
+    <t>יעקב אשר</t>
+  </si>
+  <si>
+    <t>רונן הופמן</t>
+  </si>
+  <si>
+    <t>בועז טופורובסקי</t>
+  </si>
+  <si>
+    <t>דב ליפמן</t>
+  </si>
+  <si>
+    <t>משה מזרחי</t>
+  </si>
+  <si>
+    <t>שמעון סולומון</t>
+  </si>
+  <si>
+    <t>אורית סטרוק</t>
+  </si>
+  <si>
+    <t>משה זלמן פייגלין</t>
+  </si>
+  <si>
+    <t>רינה פרנקל</t>
+  </si>
+  <si>
+    <t>דוד צור</t>
+  </si>
+  <si>
+    <t>עדי קול</t>
+  </si>
+  <si>
+    <t>רות קלדרון</t>
+  </si>
+  <si>
+    <t>זבולון כלפה</t>
+  </si>
+  <si>
+    <t>יפעת קריב</t>
+  </si>
+  <si>
+    <t>יוני שטבון</t>
+  </si>
+  <si>
+    <t>יאיר שמיר</t>
+  </si>
+  <si>
+    <t>פנינה תמנו-שטה</t>
+  </si>
+  <si>
+    <t>ליאור אדרי</t>
+  </si>
+  <si>
+    <t>הלל אילן  הורוביץ</t>
+  </si>
+  <si>
+    <t>פואד;בנימין פואד בן-אליעזר;פואד בן-אליעזר;פואד בן אליעזר;בן-אליעזר;בן אליעזר;Ben Eliezer;Ben-Eliezer</t>
+  </si>
+  <si>
+    <t>בנימין;</t>
+  </si>
+  <si>
+    <t>אלי ישי;ח"כ ישי;חבר הכנסת ישי;Eli Ishay;MK Ishay;Member of Knesset Ishay</t>
+  </si>
+  <si>
+    <t>אלי;ישי;Eli;Ishay</t>
+  </si>
+  <si>
+    <t>לבנת;ליבנת;לימור;Limor;Livnat</t>
+  </si>
+  <si>
+    <t>לימור ליבנת;השרה לבנת;השרה ליבנת;Limor Livnat;Minister Livnat</t>
+  </si>
+  <si>
+    <t>ח"כ לנדאו;חבר הכנסת לנדאו;MK Lnadau;Member of Knesset Landau</t>
+  </si>
+  <si>
+    <t>עוזי;לנדאו;Uzi;Landau</t>
+  </si>
+  <si>
+    <t>רובי ריבלין;ריבלין;Rivlin;Reuven Rivlin;Rubi Rivlin</t>
+  </si>
+  <si>
+    <t>רובי;Rubi;Reuven</t>
+  </si>
+  <si>
+    <t>מאיר שיטרית;Meir Shitrit;ח"כ שיטרית;חבר הכנסת שיטרית;ח"כ שטרית;חבר הכנסת שטרית;</t>
+  </si>
+  <si>
+    <t>שטרית;שיטרית;מאיר;Meir;Shitrit</t>
+  </si>
+  <si>
+    <t>محمّد بركة;محمد بركة;Mohammad Barakeh;m7md brke;Mohammed Barakeh;ח"כ ברכה;חבר הכנסת ברכה;מחמד ברכה;</t>
+  </si>
+  <si>
+    <t>بركة;يا محمّد;يا محمد;מחמד;מוחמד;mhmd;Mohammed;Mohammad</t>
+  </si>
+  <si>
+    <t>ניסים זאב;Nissim Zeev;Nisim Zeev;Nisim Ze'ev;Nissim Zeev</t>
+  </si>
+  <si>
+    <t>Amnon Cohen</t>
+  </si>
+  <si>
+    <t>מופז;Shaul Mofaz;Mofaz</t>
+  </si>
+  <si>
+    <t>שאול;Shaul</t>
+  </si>
+  <si>
+    <t>סער;גדעון;גידעון;Gidon;Gideon;Gid'on;Saar;Sa'ar</t>
+  </si>
+  <si>
+    <t>גידעון סער;ח"כ סער;חבר הכנסת סער;השר סער;MK Saar;MK Sa'ar;Member of Knesset Sa'ar;Member of Knesset Saar;Minister Saar;Minister Sa'ar</t>
+  </si>
+  <si>
+    <t>עמרם מיצנע;מצנע;מיצנע;Mitzna;Amram Mitzna;Mizna;Amram Mizna;</t>
+  </si>
+  <si>
+    <t>עמרם;Amram</t>
+  </si>
+  <si>
+    <t>غالب مجادلة;ראלב מגאדלה;גאלב מג'אדלה;גאלב מגאדלה;ח"כ מג'אדלה;ח"כ מגאדלה;חבר הכנסת מג'אדלה;חבר הכנסת מגאדלה;מג'דלה;Raleb Majadele;MK Majadele;Member of Knesset Majadele;Ghaleb Majadele</t>
+  </si>
+  <si>
+    <t>غالب;مجادلة;ראלב;מגאדלה;גאלב;מג'אדלה;מג'דלה;Raleb;Majadele;Ghaleb</t>
+  </si>
+  <si>
+    <t>Israel Hasson;Israel Hason;</t>
+  </si>
+  <si>
+    <t>חסון;Hasson;Hasson</t>
+  </si>
+  <si>
+    <t>Avraham Michaeli</t>
+  </si>
+  <si>
+    <t>Alex Miller;ח"כ מילר;חבר הכנסת מילר;MK Miller;Member of Knesset Miller</t>
+  </si>
+  <si>
+    <t>מילר;אלכס;Alex;Miller</t>
+  </si>
+  <si>
+    <t>حنا سويد;Hanna Swaid;חנא סויד;7na swid;</t>
+  </si>
+  <si>
+    <t>حنا;سويد;Hanna;Swaid;חנא;סויד;7na;swid;</t>
+  </si>
+  <si>
+    <t>יצחק;Itzhak;Isaac;כבוד השר;</t>
+  </si>
+  <si>
+    <t>יצחק אהרונוביץ';ח"כ אהרונוביץ';ח"כ אהרונוביץ;חבר הכנסת אהרונוביץ';חבר הכנסת אהרונוביץ;MK Aharonovich;Member of Knesset Aharonovich;השר אהרונוביץ';השר אהרונוביץ;Minister Aharonovich</t>
+  </si>
+  <si>
+    <t>Ariel Atias;Ariel Attias;ח"כ אטיאס;חבר הכנסת אטיאס;השר אטיאס</t>
+  </si>
+  <si>
+    <t>אריאל;Ariel;אטיאס;כבוד השר</t>
+  </si>
+  <si>
+    <t>Avishay Braverman;Braverman;ברוורמן;</t>
+  </si>
+  <si>
+    <t>אבישי;Avishay</t>
+  </si>
+  <si>
+    <t>Ibrahim Sarsur;ابراهيم صرصور‎‎;ח"כ צרצור;חבר הכנסת צרצור</t>
+  </si>
+  <si>
+    <t>Ibrahim;Sarsur;ابراهيم;صرصور‎‎;אברהים;צרצור;</t>
+  </si>
+  <si>
+    <t>David Rotem;דויד רותם</t>
+  </si>
+  <si>
+    <t>דוד;רותם;David;Rotem;דויד</t>
+  </si>
+  <si>
+    <t>לאון;ליאון;Leon</t>
+  </si>
+  <si>
+    <t>Leon Litinetski;ליטינצקי;Litinetski;ליאון ליטינצקי</t>
+  </si>
+  <si>
+    <t>כרמל שאמה הכהן;כרמל שאמה-הכהן;שאמה;שאמה-הכהן;שאמה הכהן;Carmel Shama-Hacohen;Shama Hacohen;Shama-Hacohen</t>
+  </si>
+  <si>
+    <t>כרמל;Carmel</t>
+  </si>
+  <si>
+    <t>Фаина Киршенбаум;Киршенбаум;פאינה קירשנבאום;פניה קירשנבאום;ח"כ קירשנבאום;חברת הכנסת קירשנבאום;Faina Kirschenbaum;</t>
+  </si>
+  <si>
+    <t>Фаина;Киршенбаум;פאינה;פניה;קירשנבאום;Faina;Kirschenbaum;</t>
+  </si>
+  <si>
+    <t>عفو إغبارية;עפו אע'באריה;עפו אגבריה;Afu Agbaria;إغبارية;אע'באריה;אגבאריה;אגבריה;Agbaria</t>
+  </si>
+  <si>
+    <t>عفو;עפו;Afu;إغبارية;</t>
+  </si>
+  <si>
+    <t>ניצן;הורביץ;Nitzan;Horowitz</t>
+  </si>
+  <si>
+    <t>Nitzan Horowitz;ח"כ הורוביץ;חבר הכנסת הורוביץ;MK Horowitz;Member of Knesset Horowitz</t>
+  </si>
+  <si>
+    <t>Uri Orbach;ח"כ אורבך;חבר הכנסת אורבך;MK Orbach;Member of Knesset Orbach;Minister Orbach;השר אורבך;</t>
+  </si>
+  <si>
+    <t>אורי;כבוד השר;אורבך;Uri;Orbach</t>
+  </si>
+  <si>
+    <t>Yuval Zellner;ח"כ צלנר;חבר הכנסת צלנר;MK Zellner;Member of Knesset Zellner</t>
+  </si>
+  <si>
+    <t>יובל;צלנר;Yuval Zellner</t>
+  </si>
+  <si>
+    <t>ח"כ אוחיון;חבר הכנסת אוחיון;Shimon Ohayon;MK Ohayon;Member of Knesset Ohayon</t>
+  </si>
+  <si>
+    <t>Shimon;Ohayon;שמעון;אוחיון</t>
+  </si>
+  <si>
+    <t>ח"כ אשר;חבר הכנסת אשר;Ya'akov Asher;Yaakov Asher;MK Asher;Member of Knesset Asher</t>
+  </si>
+  <si>
+    <t>Ronen Hoffman;ח"כ הופמן;חבר הכנסת הופמן;MK Hoffman;Member of Knesset Hoffman</t>
+  </si>
+  <si>
+    <t>הופמן;רונן;Ronen;Hoffman</t>
+  </si>
+  <si>
+    <t>בעז טופורובסקי;טופורבסקי;Boaz Toporovsky;Toporovsky</t>
+  </si>
+  <si>
+    <t>Boaz;Toporovsky;בעז;בועז;טופורבסקי</t>
+  </si>
+  <si>
+    <t>Dov Lipman;ח"כ ליפמן;חבר הכנסת ליפמן;MK Lipman;Member of Knesset Lipman</t>
+  </si>
+  <si>
+    <t>דב;Dov;דוב;Lipman;ליפמן</t>
+  </si>
+  <si>
+    <t>Moshe Mizrahi;ח"כ מזרחי;חבר הכנסת מזרחי;MK Mizrahi;Member of Knesset Mizrahi;</t>
+  </si>
+  <si>
+    <t>משה;Moshe;Mizrahi</t>
+  </si>
+  <si>
+    <t>ሽምዖን ሰሎሞንና;שמעון סלומון;ሰሎሞንና;ח"כ סולומון;ח"כ סלומון;חבר הכנסת סולומון;חבר הכנסת סלומון;Shimon Solomon;MK Solomon;Member of Knesset Solomon</t>
+  </si>
+  <si>
+    <t>;ሽምዖን;שמעון;סלומון;סולומון;Shimon;Solomon</t>
+  </si>
+  <si>
+    <t>Orit Strook;סטרוק;Strook</t>
+  </si>
+  <si>
+    <t>אורית;Orit</t>
+  </si>
+  <si>
+    <t>משה פייגלין;משה פיגלין;זלמן פייגלין;פייגלין;Moshe Feiglin;Moshe Zalman Feiglin;Feiglin</t>
+  </si>
+  <si>
+    <t>משה;זלמן;Moshe;Zalman</t>
+  </si>
+  <si>
+    <t>Rina Frenkel;ח"כ פרנקל;חברת הכנסת פרנקל;MK Frenkel;Member of Knesset Frenkel</t>
+  </si>
+  <si>
+    <t>רינה;פרנקל;Rina;Frenkel</t>
+  </si>
+  <si>
+    <t>דוד;דויד;David;Tzur;צור;צורי</t>
+  </si>
+  <si>
+    <t>David Tzur;דויד צור;ח"כ צור;חבר הכנסת צור;MK Tzur;Member of Knesset Tzur;דוד צורי;דוד צורי צור</t>
+  </si>
+  <si>
+    <t>Adi Koll;</t>
+  </si>
+  <si>
+    <t>עדי;קול;Adi;Koll</t>
+  </si>
+  <si>
+    <t>Ruth Calderon;קלדרון;Calderon</t>
+  </si>
+  <si>
+    <t>רות;Ruth</t>
+  </si>
+  <si>
+    <t>Zvulun Kalfa;MK Kalfa;Member of Knesset Kalfa;ח"כ כלפה;חבר הכנסת כלפה</t>
+  </si>
+  <si>
+    <t>זבולון;כלפה;Zvulun;Kalfa</t>
+  </si>
+  <si>
+    <t>יפעת;קריב;Yifat;Kariv</t>
+  </si>
+  <si>
+    <t>Yifat Kariv;חברת הכנסת קריב</t>
+  </si>
+  <si>
+    <t>יונתן שטבון;יוני שיטבון;יונתן שיטבון;ח"כ שטבון;חבר הכנסת שטבון;ח"כ שיטבון;חבר הכנסת שיטבון;Yonatan Chetboun;Yoni Chetboun</t>
+  </si>
+  <si>
+    <t>Chetboun;Yoni;Yonatan;יוני;יונתן;שטבון</t>
+  </si>
+  <si>
+    <t>יאיר;שמיר;Yair;Shamir</t>
+  </si>
+  <si>
+    <t>Yair Shamir;MK Shamir;Member of Knesset Shamir;ח"כ שמיר;חבר הכנסת שמיר</t>
+  </si>
+  <si>
+    <t>פנינה;תמנו;שטה;Pnina</t>
+  </si>
+  <si>
+    <t>ፕኒና ታምኖ እሸቴ;פנינה תמנו שטה;תמנו-שטה;תמנו שטה;ፕኒና ታምኖ;እሸቴ;Pnina Tamano-Shata;Pnina Tamano Shata;Tamano Shata;Tamano-Shata;Tamano;Shata</t>
+  </si>
+  <si>
+    <t>איו דף</t>
+  </si>
+  <si>
+    <t>Lior Edri</t>
+  </si>
+  <si>
+    <t>Hillel Horowitz;</t>
   </si>
 </sst>
 </file>
@@ -1987,8 +2445,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2004,7 +2465,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Helper_Query - MK Names and All AltNames_2016_06_07" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Helper_Query - MK Names and All AltNames_2016_06_07" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Helper_Query - 20th Knesset MK Names and current roles_2016_06_11" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2294,10 +2759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4666,6 +5131,836 @@
       </c>
       <c r="E131" t="s">
         <v>625</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>20</v>
+      </c>
+      <c r="B132" t="s">
+        <v>639</v>
+      </c>
+      <c r="C132" t="s">
+        <v>640</v>
+      </c>
+      <c r="D132" t="s">
+        <v>695</v>
+      </c>
+      <c r="E132" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>63</v>
+      </c>
+      <c r="B133" t="s">
+        <v>641</v>
+      </c>
+      <c r="C133" t="s">
+        <v>642</v>
+      </c>
+      <c r="D133" t="s">
+        <v>697</v>
+      </c>
+      <c r="E133" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>70</v>
+      </c>
+      <c r="B134" t="s">
+        <v>643</v>
+      </c>
+      <c r="C134" t="s">
+        <v>644</v>
+      </c>
+      <c r="D134" t="s">
+        <v>700</v>
+      </c>
+      <c r="E134" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>77</v>
+      </c>
+      <c r="B135" t="s">
+        <v>645</v>
+      </c>
+      <c r="C135" t="s">
+        <v>644</v>
+      </c>
+      <c r="D135" t="s">
+        <v>701</v>
+      </c>
+      <c r="E135" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>114</v>
+      </c>
+      <c r="B136" t="s">
+        <v>646</v>
+      </c>
+      <c r="C136" t="s">
+        <v>644</v>
+      </c>
+      <c r="D136" t="s">
+        <v>703</v>
+      </c>
+      <c r="E136" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>119</v>
+      </c>
+      <c r="B137" t="s">
+        <v>647</v>
+      </c>
+      <c r="C137" t="s">
+        <v>648</v>
+      </c>
+      <c r="D137" t="s">
+        <v>705</v>
+      </c>
+      <c r="E137" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>197</v>
+      </c>
+      <c r="B138" t="s">
+        <v>649</v>
+      </c>
+      <c r="C138" t="s">
+        <v>650</v>
+      </c>
+      <c r="D138" t="s">
+        <v>707</v>
+      </c>
+      <c r="E138" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>206</v>
+      </c>
+      <c r="B139" t="s">
+        <v>651</v>
+      </c>
+      <c r="C139" t="s">
+        <v>642</v>
+      </c>
+      <c r="D139" t="s">
+        <v>709</v>
+      </c>
+      <c r="G139" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>210</v>
+      </c>
+      <c r="B140" t="s">
+        <v>652</v>
+      </c>
+      <c r="C140" t="s">
+        <v>642</v>
+      </c>
+      <c r="D140" t="s">
+        <v>710</v>
+      </c>
+      <c r="G140" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>720</v>
+      </c>
+      <c r="B141" t="s">
+        <v>653</v>
+      </c>
+      <c r="C141" t="s">
+        <v>654</v>
+      </c>
+      <c r="D141" t="s">
+        <v>711</v>
+      </c>
+      <c r="E141" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>725</v>
+      </c>
+      <c r="B142" t="s">
+        <v>655</v>
+      </c>
+      <c r="C142" t="s">
+        <v>644</v>
+      </c>
+      <c r="D142" t="s">
+        <v>714</v>
+      </c>
+      <c r="E142" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>739</v>
+      </c>
+      <c r="B143" t="s">
+        <v>656</v>
+      </c>
+      <c r="C143" t="s">
+        <v>648</v>
+      </c>
+      <c r="D143" t="s">
+        <v>715</v>
+      </c>
+      <c r="E143" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>758</v>
+      </c>
+      <c r="B144" t="s">
+        <v>657</v>
+      </c>
+      <c r="C144" t="s">
+        <v>640</v>
+      </c>
+      <c r="D144" t="s">
+        <v>717</v>
+      </c>
+      <c r="E144" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>781</v>
+      </c>
+      <c r="B145" t="s">
+        <v>658</v>
+      </c>
+      <c r="C145" t="s">
+        <v>654</v>
+      </c>
+      <c r="D145" t="s">
+        <v>719</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>784</v>
+      </c>
+      <c r="B146" t="s">
+        <v>659</v>
+      </c>
+      <c r="C146" t="s">
+        <v>642</v>
+      </c>
+      <c r="D146" t="s">
+        <v>721</v>
+      </c>
+      <c r="G146" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>785</v>
+      </c>
+      <c r="B147" t="s">
+        <v>660</v>
+      </c>
+      <c r="C147" t="s">
+        <v>644</v>
+      </c>
+      <c r="D147" t="s">
+        <v>722</v>
+      </c>
+      <c r="E147" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>789</v>
+      </c>
+      <c r="B148" t="s">
+        <v>661</v>
+      </c>
+      <c r="C148" t="s">
+        <v>650</v>
+      </c>
+      <c r="D148" t="s">
+        <v>724</v>
+      </c>
+      <c r="E148" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>790</v>
+      </c>
+      <c r="B149" t="s">
+        <v>662</v>
+      </c>
+      <c r="C149" t="s">
+        <v>644</v>
+      </c>
+      <c r="D149" t="s">
+        <v>727</v>
+      </c>
+      <c r="E149" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>791</v>
+      </c>
+      <c r="B150" t="s">
+        <v>663</v>
+      </c>
+      <c r="C150" t="s">
+        <v>642</v>
+      </c>
+      <c r="D150" t="s">
+        <v>728</v>
+      </c>
+      <c r="E150" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>797</v>
+      </c>
+      <c r="B151" t="s">
+        <v>664</v>
+      </c>
+      <c r="C151" t="s">
+        <v>640</v>
+      </c>
+      <c r="D151" t="s">
+        <v>730</v>
+      </c>
+      <c r="E151" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>800</v>
+      </c>
+      <c r="B152" t="s">
+        <v>665</v>
+      </c>
+      <c r="C152" t="s">
+        <v>666</v>
+      </c>
+      <c r="D152" t="s">
+        <v>732</v>
+      </c>
+      <c r="E152" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>805</v>
+      </c>
+      <c r="B153" t="s">
+        <v>667</v>
+      </c>
+      <c r="C153" t="s">
+        <v>644</v>
+      </c>
+      <c r="D153" t="s">
+        <v>734</v>
+      </c>
+      <c r="E153" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>813</v>
+      </c>
+      <c r="B154" t="s">
+        <v>668</v>
+      </c>
+      <c r="C154" t="s">
+        <v>644</v>
+      </c>
+      <c r="D154" t="s">
+        <v>737</v>
+      </c>
+      <c r="E154" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>829</v>
+      </c>
+      <c r="B155" t="s">
+        <v>669</v>
+      </c>
+      <c r="C155" t="s">
+        <v>644</v>
+      </c>
+      <c r="D155" t="s">
+        <v>738</v>
+      </c>
+      <c r="E155" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>835</v>
+      </c>
+      <c r="B156" t="s">
+        <v>670</v>
+      </c>
+      <c r="C156" t="s">
+        <v>644</v>
+      </c>
+      <c r="D156" t="s">
+        <v>740</v>
+      </c>
+      <c r="E156" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>842</v>
+      </c>
+      <c r="B157" t="s">
+        <v>671</v>
+      </c>
+      <c r="C157" t="s">
+        <v>650</v>
+      </c>
+      <c r="D157" t="s">
+        <v>742</v>
+      </c>
+      <c r="E157" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>843</v>
+      </c>
+      <c r="B158" t="s">
+        <v>672</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>745</v>
+      </c>
+      <c r="E158" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>845</v>
+      </c>
+      <c r="B159" t="s">
+        <v>673</v>
+      </c>
+      <c r="C159" t="s">
+        <v>53</v>
+      </c>
+      <c r="D159" t="s">
+        <v>746</v>
+      </c>
+      <c r="E159" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>853</v>
+      </c>
+      <c r="B160" t="s">
+        <v>674</v>
+      </c>
+      <c r="C160" t="s">
+        <v>654</v>
+      </c>
+      <c r="D160" t="s">
+        <v>748</v>
+      </c>
+      <c r="E160" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>859</v>
+      </c>
+      <c r="B161" t="s">
+        <v>675</v>
+      </c>
+      <c r="C161" t="s">
+        <v>644</v>
+      </c>
+      <c r="D161" t="s">
+        <v>750</v>
+      </c>
+      <c r="E161" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>861</v>
+      </c>
+      <c r="B162" t="s">
+        <v>676</v>
+      </c>
+      <c r="C162" t="s">
+        <v>23</v>
+      </c>
+      <c r="D162" t="s">
+        <v>752</v>
+      </c>
+      <c r="G162" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>869</v>
+      </c>
+      <c r="B163" t="s">
+        <v>677</v>
+      </c>
+      <c r="C163" t="s">
+        <v>197</v>
+      </c>
+      <c r="D163" t="s">
+        <v>753</v>
+      </c>
+      <c r="E163" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>872</v>
+      </c>
+      <c r="B164" t="s">
+        <v>678</v>
+      </c>
+      <c r="C164" t="s">
+        <v>197</v>
+      </c>
+      <c r="D164" t="s">
+        <v>755</v>
+      </c>
+      <c r="E164" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>877</v>
+      </c>
+      <c r="B165" t="s">
+        <v>679</v>
+      </c>
+      <c r="C165" t="s">
+        <v>197</v>
+      </c>
+      <c r="D165" t="s">
+        <v>757</v>
+      </c>
+      <c r="E165" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>880</v>
+      </c>
+      <c r="B166" t="s">
+        <v>680</v>
+      </c>
+      <c r="C166" t="s">
+        <v>640</v>
+      </c>
+      <c r="D166" t="s">
+        <v>759</v>
+      </c>
+      <c r="E166" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>883</v>
+      </c>
+      <c r="B167" t="s">
+        <v>681</v>
+      </c>
+      <c r="C167" t="s">
+        <v>197</v>
+      </c>
+      <c r="D167" t="s">
+        <v>761</v>
+      </c>
+      <c r="E167" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>884</v>
+      </c>
+      <c r="B168" t="s">
+        <v>682</v>
+      </c>
+      <c r="C168" t="s">
+        <v>53</v>
+      </c>
+      <c r="D168" t="s">
+        <v>763</v>
+      </c>
+      <c r="E168" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>885</v>
+      </c>
+      <c r="B169" t="s">
+        <v>683</v>
+      </c>
+      <c r="C169" t="s">
+        <v>644</v>
+      </c>
+      <c r="D169" t="s">
+        <v>765</v>
+      </c>
+      <c r="E169" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>889</v>
+      </c>
+      <c r="B170" t="s">
+        <v>684</v>
+      </c>
+      <c r="C170" t="s">
+        <v>197</v>
+      </c>
+      <c r="D170" t="s">
+        <v>767</v>
+      </c>
+      <c r="E170" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>890</v>
+      </c>
+      <c r="B171" t="s">
+        <v>685</v>
+      </c>
+      <c r="C171" t="s">
+        <v>648</v>
+      </c>
+      <c r="D171" t="s">
+        <v>770</v>
+      </c>
+      <c r="E171" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>891</v>
+      </c>
+      <c r="B172" t="s">
+        <v>686</v>
+      </c>
+      <c r="C172" t="s">
+        <v>197</v>
+      </c>
+      <c r="D172" t="s">
+        <v>771</v>
+      </c>
+      <c r="E172" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>892</v>
+      </c>
+      <c r="B173" t="s">
+        <v>687</v>
+      </c>
+      <c r="C173" t="s">
+        <v>197</v>
+      </c>
+      <c r="D173" t="s">
+        <v>773</v>
+      </c>
+      <c r="E173" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>893</v>
+      </c>
+      <c r="B174" t="s">
+        <v>688</v>
+      </c>
+      <c r="C174" t="s">
+        <v>53</v>
+      </c>
+      <c r="D174" t="s">
+        <v>775</v>
+      </c>
+      <c r="E174" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>894</v>
+      </c>
+      <c r="B175" t="s">
+        <v>689</v>
+      </c>
+      <c r="C175" t="s">
+        <v>197</v>
+      </c>
+      <c r="D175" t="s">
+        <v>778</v>
+      </c>
+      <c r="E175" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>898</v>
+      </c>
+      <c r="B176" t="s">
+        <v>690</v>
+      </c>
+      <c r="C176" t="s">
+        <v>53</v>
+      </c>
+      <c r="D176" t="s">
+        <v>779</v>
+      </c>
+      <c r="E176" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>902</v>
+      </c>
+      <c r="B177" t="s">
+        <v>691</v>
+      </c>
+      <c r="C177" t="s">
+        <v>644</v>
+      </c>
+      <c r="D177" t="s">
+        <v>782</v>
+      </c>
+      <c r="E177" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>905</v>
+      </c>
+      <c r="B178" t="s">
+        <v>692</v>
+      </c>
+      <c r="C178" t="s">
+        <v>197</v>
+      </c>
+      <c r="D178" t="s">
+        <v>784</v>
+      </c>
+      <c r="E178" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>907</v>
+      </c>
+      <c r="B179" t="s">
+        <v>693</v>
+      </c>
+      <c r="C179" t="s">
+        <v>642</v>
+      </c>
+      <c r="D179" t="s">
+        <v>786</v>
+      </c>
+      <c r="G179" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>908</v>
+      </c>
+      <c r="B180" t="s">
+        <v>694</v>
+      </c>
+      <c r="C180" t="s">
+        <v>53</v>
+      </c>
+      <c r="D180" t="s">
+        <v>787</v>
       </c>
     </row>
   </sheetData>
@@ -10159,13 +11454,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133:C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -11734,6 +13035,545 @@
         <v>6</v>
       </c>
     </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>20</v>
+      </c>
+      <c r="B133" t="s">
+        <v>639</v>
+      </c>
+      <c r="C133" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>63</v>
+      </c>
+      <c r="B134" t="s">
+        <v>641</v>
+      </c>
+      <c r="C134" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>70</v>
+      </c>
+      <c r="B135" t="s">
+        <v>643</v>
+      </c>
+      <c r="C135" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>77</v>
+      </c>
+      <c r="B136" t="s">
+        <v>645</v>
+      </c>
+      <c r="C136" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>114</v>
+      </c>
+      <c r="B137" t="s">
+        <v>646</v>
+      </c>
+      <c r="C137" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>119</v>
+      </c>
+      <c r="B138" t="s">
+        <v>647</v>
+      </c>
+      <c r="C138" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>197</v>
+      </c>
+      <c r="B139" t="s">
+        <v>649</v>
+      </c>
+      <c r="C139" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>206</v>
+      </c>
+      <c r="B140" t="s">
+        <v>651</v>
+      </c>
+      <c r="C140" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>210</v>
+      </c>
+      <c r="B141" t="s">
+        <v>652</v>
+      </c>
+      <c r="C141" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>720</v>
+      </c>
+      <c r="B142" t="s">
+        <v>653</v>
+      </c>
+      <c r="C142" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>725</v>
+      </c>
+      <c r="B143" t="s">
+        <v>655</v>
+      </c>
+      <c r="C143" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>739</v>
+      </c>
+      <c r="B144" t="s">
+        <v>656</v>
+      </c>
+      <c r="C144" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>758</v>
+      </c>
+      <c r="B145" t="s">
+        <v>657</v>
+      </c>
+      <c r="C145" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>781</v>
+      </c>
+      <c r="B146" t="s">
+        <v>658</v>
+      </c>
+      <c r="C146" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>784</v>
+      </c>
+      <c r="B147" t="s">
+        <v>659</v>
+      </c>
+      <c r="C147" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>785</v>
+      </c>
+      <c r="B148" t="s">
+        <v>660</v>
+      </c>
+      <c r="C148" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>789</v>
+      </c>
+      <c r="B149" t="s">
+        <v>661</v>
+      </c>
+      <c r="C149" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>790</v>
+      </c>
+      <c r="B150" t="s">
+        <v>662</v>
+      </c>
+      <c r="C150" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>791</v>
+      </c>
+      <c r="B151" t="s">
+        <v>663</v>
+      </c>
+      <c r="C151" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>797</v>
+      </c>
+      <c r="B152" t="s">
+        <v>664</v>
+      </c>
+      <c r="C152" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>800</v>
+      </c>
+      <c r="B153" t="s">
+        <v>665</v>
+      </c>
+      <c r="C153" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>805</v>
+      </c>
+      <c r="B154" t="s">
+        <v>667</v>
+      </c>
+      <c r="C154" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>813</v>
+      </c>
+      <c r="B155" t="s">
+        <v>668</v>
+      </c>
+      <c r="C155" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>829</v>
+      </c>
+      <c r="B156" t="s">
+        <v>669</v>
+      </c>
+      <c r="C156" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>835</v>
+      </c>
+      <c r="B157" t="s">
+        <v>670</v>
+      </c>
+      <c r="C157" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>842</v>
+      </c>
+      <c r="B158" t="s">
+        <v>671</v>
+      </c>
+      <c r="C158" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>843</v>
+      </c>
+      <c r="B159" t="s">
+        <v>672</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>845</v>
+      </c>
+      <c r="B160" t="s">
+        <v>673</v>
+      </c>
+      <c r="C160" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>853</v>
+      </c>
+      <c r="B161" t="s">
+        <v>674</v>
+      </c>
+      <c r="C161" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>859</v>
+      </c>
+      <c r="B162" t="s">
+        <v>675</v>
+      </c>
+      <c r="C162" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>861</v>
+      </c>
+      <c r="B163" t="s">
+        <v>676</v>
+      </c>
+      <c r="C163" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>869</v>
+      </c>
+      <c r="B164" t="s">
+        <v>677</v>
+      </c>
+      <c r="C164" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>872</v>
+      </c>
+      <c r="B165" t="s">
+        <v>678</v>
+      </c>
+      <c r="C165" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>877</v>
+      </c>
+      <c r="B166" t="s">
+        <v>679</v>
+      </c>
+      <c r="C166" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>880</v>
+      </c>
+      <c r="B167" t="s">
+        <v>680</v>
+      </c>
+      <c r="C167" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>883</v>
+      </c>
+      <c r="B168" t="s">
+        <v>681</v>
+      </c>
+      <c r="C168" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>884</v>
+      </c>
+      <c r="B169" t="s">
+        <v>682</v>
+      </c>
+      <c r="C169" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>885</v>
+      </c>
+      <c r="B170" t="s">
+        <v>683</v>
+      </c>
+      <c r="C170" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>889</v>
+      </c>
+      <c r="B171" t="s">
+        <v>684</v>
+      </c>
+      <c r="C171" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>890</v>
+      </c>
+      <c r="B172" t="s">
+        <v>685</v>
+      </c>
+      <c r="C172" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>891</v>
+      </c>
+      <c r="B173" t="s">
+        <v>686</v>
+      </c>
+      <c r="C173" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>892</v>
+      </c>
+      <c r="B174" t="s">
+        <v>687</v>
+      </c>
+      <c r="C174" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>893</v>
+      </c>
+      <c r="B175" t="s">
+        <v>688</v>
+      </c>
+      <c r="C175" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>894</v>
+      </c>
+      <c r="B176" t="s">
+        <v>689</v>
+      </c>
+      <c r="C176" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>898</v>
+      </c>
+      <c r="B177" t="s">
+        <v>690</v>
+      </c>
+      <c r="C177" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>902</v>
+      </c>
+      <c r="B178" t="s">
+        <v>691</v>
+      </c>
+      <c r="C178" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>905</v>
+      </c>
+      <c r="B179" t="s">
+        <v>692</v>
+      </c>
+      <c r="C179" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>907</v>
+      </c>
+      <c r="B180" t="s">
+        <v>693</v>
+      </c>
+      <c r="C180" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>908</v>
+      </c>
+      <c r="B181" t="s">
+        <v>694</v>
+      </c>
+      <c r="C181" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/kikar_hamedina/Alternative Names.xlsx
+++ b/kikar_hamedina/Alternative Names.xlsx
@@ -1875,9 +1875,6 @@
     <t>הנגבי;hanegbi;Tzachi Hanegbi;</t>
   </si>
   <si>
-    <t>בנימין;Benyamin;Benjamin</t>
-  </si>
-  <si>
     <t>יאיר;Yair;יאירקה;</t>
   </si>
   <si>
@@ -2410,6 +2407,9 @@
   </si>
   <si>
     <t>Hillel Horowitz;</t>
+  </si>
+  <si>
+    <t>בנימין;Benyamin;Benjamin;BB</t>
   </si>
 </sst>
 </file>
@@ -2761,8 +2761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H180"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="D179" sqref="D179"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2925,7 +2925,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F8" t="s">
         <v>363</v>
@@ -2965,7 +2965,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F10" t="s">
         <v>365</v>
@@ -3005,10 +3005,10 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
+        <v>632</v>
+      </c>
+      <c r="E12" t="s">
         <v>633</v>
-      </c>
-      <c r="E12" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -3022,13 +3022,13 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
+        <v>636</v>
+      </c>
+      <c r="E13" t="s">
+        <v>787</v>
+      </c>
+      <c r="F13" t="s">
         <v>637</v>
-      </c>
-      <c r="E13" t="s">
-        <v>609</v>
-      </c>
-      <c r="F13" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -3062,7 +3062,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H15" t="s">
         <v>356</v>
@@ -3096,7 +3096,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -4062,7 +4062,7 @@
         <v>505</v>
       </c>
       <c r="E71" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -4525,10 +4525,10 @@
         <v>69</v>
       </c>
       <c r="D97" t="s">
+        <v>628</v>
+      </c>
+      <c r="E97" t="s">
         <v>629</v>
-      </c>
-      <c r="E97" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -4596,7 +4596,7 @@
         <v>69</v>
       </c>
       <c r="D101" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H101" t="s">
         <v>356</v>
@@ -4985,10 +4985,10 @@
         <v>6</v>
       </c>
       <c r="D123" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E123" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -5002,10 +5002,10 @@
         <v>112</v>
       </c>
       <c r="D124" t="s">
+        <v>612</v>
+      </c>
+      <c r="E124" t="s">
         <v>613</v>
-      </c>
-      <c r="E124" t="s">
-        <v>614</v>
       </c>
       <c r="F124" t="s">
         <v>393</v>
@@ -5022,10 +5022,10 @@
         <v>69</v>
       </c>
       <c r="D125" t="s">
+        <v>625</v>
+      </c>
+      <c r="E125" t="s">
         <v>626</v>
-      </c>
-      <c r="E125" t="s">
-        <v>627</v>
       </c>
       <c r="F125" t="s">
         <v>394</v>
@@ -5042,10 +5042,10 @@
         <v>6</v>
       </c>
       <c r="D126" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E126" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -5059,10 +5059,10 @@
         <v>41</v>
       </c>
       <c r="D127" t="s">
+        <v>616</v>
+      </c>
+      <c r="E127" t="s">
         <v>617</v>
-      </c>
-      <c r="E127" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -5076,10 +5076,10 @@
         <v>35</v>
       </c>
       <c r="D128" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E128" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -5093,10 +5093,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="s">
+        <v>620</v>
+      </c>
+      <c r="E129" t="s">
         <v>621</v>
-      </c>
-      <c r="E129" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -5110,7 +5110,7 @@
         <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G130" t="s">
         <v>356</v>
@@ -5127,10 +5127,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="s">
+        <v>623</v>
+      </c>
+      <c r="E131" t="s">
         <v>624</v>
-      </c>
-      <c r="E131" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -5138,16 +5138,16 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
+        <v>638</v>
+      </c>
+      <c r="C132" t="s">
         <v>639</v>
       </c>
-      <c r="C132" t="s">
-        <v>640</v>
-      </c>
       <c r="D132" t="s">
+        <v>694</v>
+      </c>
+      <c r="E132" t="s">
         <v>695</v>
-      </c>
-      <c r="E132" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -5155,16 +5155,16 @@
         <v>63</v>
       </c>
       <c r="B133" t="s">
+        <v>640</v>
+      </c>
+      <c r="C133" t="s">
         <v>641</v>
       </c>
-      <c r="C133" t="s">
-        <v>642</v>
-      </c>
       <c r="D133" t="s">
+        <v>696</v>
+      </c>
+      <c r="E133" t="s">
         <v>697</v>
-      </c>
-      <c r="E133" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -5172,16 +5172,16 @@
         <v>70</v>
       </c>
       <c r="B134" t="s">
+        <v>642</v>
+      </c>
+      <c r="C134" t="s">
         <v>643</v>
       </c>
-      <c r="C134" t="s">
-        <v>644</v>
-      </c>
       <c r="D134" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E134" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -5189,16 +5189,16 @@
         <v>77</v>
       </c>
       <c r="B135" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C135" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D135" t="s">
+        <v>700</v>
+      </c>
+      <c r="E135" t="s">
         <v>701</v>
-      </c>
-      <c r="E135" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -5206,16 +5206,16 @@
         <v>114</v>
       </c>
       <c r="B136" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C136" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D136" t="s">
+        <v>702</v>
+      </c>
+      <c r="E136" t="s">
         <v>703</v>
-      </c>
-      <c r="E136" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -5223,16 +5223,16 @@
         <v>119</v>
       </c>
       <c r="B137" t="s">
+        <v>646</v>
+      </c>
+      <c r="C137" t="s">
         <v>647</v>
       </c>
-      <c r="C137" t="s">
-        <v>648</v>
-      </c>
       <c r="D137" t="s">
+        <v>704</v>
+      </c>
+      <c r="E137" t="s">
         <v>705</v>
-      </c>
-      <c r="E137" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -5240,16 +5240,16 @@
         <v>197</v>
       </c>
       <c r="B138" t="s">
+        <v>648</v>
+      </c>
+      <c r="C138" t="s">
         <v>649</v>
       </c>
-      <c r="C138" t="s">
-        <v>650</v>
-      </c>
       <c r="D138" t="s">
+        <v>706</v>
+      </c>
+      <c r="E138" t="s">
         <v>707</v>
-      </c>
-      <c r="E138" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -5257,13 +5257,13 @@
         <v>206</v>
       </c>
       <c r="B139" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C139" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D139" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G139" t="s">
         <v>356</v>
@@ -5274,13 +5274,13 @@
         <v>210</v>
       </c>
       <c r="B140" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C140" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D140" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G140" t="s">
         <v>356</v>
@@ -5291,16 +5291,16 @@
         <v>720</v>
       </c>
       <c r="B141" t="s">
+        <v>652</v>
+      </c>
+      <c r="C141" t="s">
         <v>653</v>
       </c>
-      <c r="C141" t="s">
-        <v>654</v>
-      </c>
       <c r="D141" t="s">
+        <v>710</v>
+      </c>
+      <c r="E141" t="s">
         <v>711</v>
-      </c>
-      <c r="E141" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -5308,16 +5308,16 @@
         <v>725</v>
       </c>
       <c r="B142" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C142" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D142" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E142" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -5325,16 +5325,16 @@
         <v>739</v>
       </c>
       <c r="B143" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C143" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D143" t="s">
+        <v>714</v>
+      </c>
+      <c r="E143" t="s">
         <v>715</v>
-      </c>
-      <c r="E143" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -5342,16 +5342,16 @@
         <v>758</v>
       </c>
       <c r="B144" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C144" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D144" t="s">
+        <v>716</v>
+      </c>
+      <c r="E144" t="s">
         <v>717</v>
-      </c>
-      <c r="E144" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -5359,16 +5359,16 @@
         <v>781</v>
       </c>
       <c r="B145" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C145" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D145" t="s">
+        <v>718</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -5376,13 +5376,13 @@
         <v>784</v>
       </c>
       <c r="B146" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C146" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D146" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G146" t="s">
         <v>356</v>
@@ -5393,16 +5393,16 @@
         <v>785</v>
       </c>
       <c r="B147" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C147" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D147" t="s">
+        <v>721</v>
+      </c>
+      <c r="E147" t="s">
         <v>722</v>
-      </c>
-      <c r="E147" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -5410,16 +5410,16 @@
         <v>789</v>
       </c>
       <c r="B148" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C148" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D148" t="s">
+        <v>723</v>
+      </c>
+      <c r="E148" t="s">
         <v>724</v>
-      </c>
-      <c r="E148" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -5427,16 +5427,16 @@
         <v>790</v>
       </c>
       <c r="B149" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C149" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D149" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E149" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -5444,16 +5444,16 @@
         <v>791</v>
       </c>
       <c r="B150" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C150" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D150" t="s">
+        <v>727</v>
+      </c>
+      <c r="E150" t="s">
         <v>728</v>
-      </c>
-      <c r="E150" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -5461,16 +5461,16 @@
         <v>797</v>
       </c>
       <c r="B151" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C151" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D151" t="s">
+        <v>729</v>
+      </c>
+      <c r="E151" t="s">
         <v>730</v>
-      </c>
-      <c r="E151" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -5478,16 +5478,16 @@
         <v>800</v>
       </c>
       <c r="B152" t="s">
+        <v>664</v>
+      </c>
+      <c r="C152" t="s">
         <v>665</v>
       </c>
-      <c r="C152" t="s">
-        <v>666</v>
-      </c>
       <c r="D152" t="s">
+        <v>731</v>
+      </c>
+      <c r="E152" t="s">
         <v>732</v>
-      </c>
-      <c r="E152" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -5495,16 +5495,16 @@
         <v>805</v>
       </c>
       <c r="B153" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C153" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D153" t="s">
+        <v>733</v>
+      </c>
+      <c r="E153" t="s">
         <v>734</v>
-      </c>
-      <c r="E153" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -5512,16 +5512,16 @@
         <v>813</v>
       </c>
       <c r="B154" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C154" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D154" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E154" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -5529,16 +5529,16 @@
         <v>829</v>
       </c>
       <c r="B155" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C155" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D155" t="s">
+        <v>737</v>
+      </c>
+      <c r="E155" t="s">
         <v>738</v>
-      </c>
-      <c r="E155" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -5546,16 +5546,16 @@
         <v>835</v>
       </c>
       <c r="B156" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C156" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D156" t="s">
+        <v>739</v>
+      </c>
+      <c r="E156" t="s">
         <v>740</v>
-      </c>
-      <c r="E156" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -5563,16 +5563,16 @@
         <v>842</v>
       </c>
       <c r="B157" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C157" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D157" t="s">
+        <v>741</v>
+      </c>
+      <c r="E157" t="s">
         <v>742</v>
-      </c>
-      <c r="E157" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -5580,16 +5580,16 @@
         <v>843</v>
       </c>
       <c r="B158" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C158" t="s">
         <v>63</v>
       </c>
       <c r="D158" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E158" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -5597,16 +5597,16 @@
         <v>845</v>
       </c>
       <c r="B159" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C159" t="s">
         <v>53</v>
       </c>
       <c r="D159" t="s">
+        <v>745</v>
+      </c>
+      <c r="E159" t="s">
         <v>746</v>
-      </c>
-      <c r="E159" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -5614,16 +5614,16 @@
         <v>853</v>
       </c>
       <c r="B160" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C160" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D160" t="s">
+        <v>747</v>
+      </c>
+      <c r="E160" t="s">
         <v>748</v>
-      </c>
-      <c r="E160" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -5631,16 +5631,16 @@
         <v>859</v>
       </c>
       <c r="B161" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C161" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D161" t="s">
+        <v>749</v>
+      </c>
+      <c r="E161" t="s">
         <v>750</v>
-      </c>
-      <c r="E161" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -5648,13 +5648,13 @@
         <v>861</v>
       </c>
       <c r="B162" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C162" t="s">
         <v>23</v>
       </c>
       <c r="D162" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G162" t="s">
         <v>356</v>
@@ -5665,16 +5665,16 @@
         <v>869</v>
       </c>
       <c r="B163" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C163" t="s">
         <v>197</v>
       </c>
       <c r="D163" t="s">
+        <v>752</v>
+      </c>
+      <c r="E163" t="s">
         <v>753</v>
-      </c>
-      <c r="E163" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -5682,16 +5682,16 @@
         <v>872</v>
       </c>
       <c r="B164" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C164" t="s">
         <v>197</v>
       </c>
       <c r="D164" t="s">
+        <v>754</v>
+      </c>
+      <c r="E164" t="s">
         <v>755</v>
-      </c>
-      <c r="E164" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -5699,16 +5699,16 @@
         <v>877</v>
       </c>
       <c r="B165" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C165" t="s">
         <v>197</v>
       </c>
       <c r="D165" t="s">
+        <v>756</v>
+      </c>
+      <c r="E165" t="s">
         <v>757</v>
-      </c>
-      <c r="E165" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -5716,16 +5716,16 @@
         <v>880</v>
       </c>
       <c r="B166" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C166" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D166" t="s">
+        <v>758</v>
+      </c>
+      <c r="E166" t="s">
         <v>759</v>
-      </c>
-      <c r="E166" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -5733,16 +5733,16 @@
         <v>883</v>
       </c>
       <c r="B167" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C167" t="s">
         <v>197</v>
       </c>
       <c r="D167" t="s">
+        <v>760</v>
+      </c>
+      <c r="E167" t="s">
         <v>761</v>
-      </c>
-      <c r="E167" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -5750,16 +5750,16 @@
         <v>884</v>
       </c>
       <c r="B168" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C168" t="s">
         <v>53</v>
       </c>
       <c r="D168" t="s">
+        <v>762</v>
+      </c>
+      <c r="E168" t="s">
         <v>763</v>
-      </c>
-      <c r="E168" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -5767,16 +5767,16 @@
         <v>885</v>
       </c>
       <c r="B169" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C169" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D169" t="s">
+        <v>764</v>
+      </c>
+      <c r="E169" t="s">
         <v>765</v>
-      </c>
-      <c r="E169" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -5784,16 +5784,16 @@
         <v>889</v>
       </c>
       <c r="B170" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C170" t="s">
         <v>197</v>
       </c>
       <c r="D170" t="s">
+        <v>766</v>
+      </c>
+      <c r="E170" t="s">
         <v>767</v>
-      </c>
-      <c r="E170" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -5801,16 +5801,16 @@
         <v>890</v>
       </c>
       <c r="B171" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C171" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D171" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E171" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -5818,16 +5818,16 @@
         <v>891</v>
       </c>
       <c r="B172" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C172" t="s">
         <v>197</v>
       </c>
       <c r="D172" t="s">
+        <v>770</v>
+      </c>
+      <c r="E172" t="s">
         <v>771</v>
-      </c>
-      <c r="E172" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -5835,16 +5835,16 @@
         <v>892</v>
       </c>
       <c r="B173" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C173" t="s">
         <v>197</v>
       </c>
       <c r="D173" t="s">
+        <v>772</v>
+      </c>
+      <c r="E173" t="s">
         <v>773</v>
-      </c>
-      <c r="E173" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -5852,16 +5852,16 @@
         <v>893</v>
       </c>
       <c r="B174" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C174" t="s">
         <v>53</v>
       </c>
       <c r="D174" t="s">
+        <v>774</v>
+      </c>
+      <c r="E174" t="s">
         <v>775</v>
-      </c>
-      <c r="E174" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -5869,16 +5869,16 @@
         <v>894</v>
       </c>
       <c r="B175" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C175" t="s">
         <v>197</v>
       </c>
       <c r="D175" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E175" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -5886,16 +5886,16 @@
         <v>898</v>
       </c>
       <c r="B176" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C176" t="s">
         <v>53</v>
       </c>
       <c r="D176" t="s">
+        <v>778</v>
+      </c>
+      <c r="E176" t="s">
         <v>779</v>
-      </c>
-      <c r="E176" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -5903,16 +5903,16 @@
         <v>902</v>
       </c>
       <c r="B177" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C177" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D177" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E177" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -5920,16 +5920,16 @@
         <v>905</v>
       </c>
       <c r="B178" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C178" t="s">
         <v>197</v>
       </c>
       <c r="D178" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E178" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -5937,16 +5937,16 @@
         <v>907</v>
       </c>
       <c r="B179" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C179" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D179" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G179" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -5954,13 +5954,13 @@
         <v>908</v>
       </c>
       <c r="B180" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C180" t="s">
         <v>53</v>
       </c>
       <c r="D180" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -13040,10 +13040,10 @@
         <v>20</v>
       </c>
       <c r="B133" t="s">
+        <v>638</v>
+      </c>
+      <c r="C133" t="s">
         <v>639</v>
-      </c>
-      <c r="C133" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -13051,10 +13051,10 @@
         <v>63</v>
       </c>
       <c r="B134" t="s">
+        <v>640</v>
+      </c>
+      <c r="C134" t="s">
         <v>641</v>
-      </c>
-      <c r="C134" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -13062,10 +13062,10 @@
         <v>70</v>
       </c>
       <c r="B135" t="s">
+        <v>642</v>
+      </c>
+      <c r="C135" t="s">
         <v>643</v>
-      </c>
-      <c r="C135" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -13073,10 +13073,10 @@
         <v>77</v>
       </c>
       <c r="B136" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C136" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -13084,10 +13084,10 @@
         <v>114</v>
       </c>
       <c r="B137" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C137" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -13095,10 +13095,10 @@
         <v>119</v>
       </c>
       <c r="B138" t="s">
+        <v>646</v>
+      </c>
+      <c r="C138" t="s">
         <v>647</v>
-      </c>
-      <c r="C138" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -13106,10 +13106,10 @@
         <v>197</v>
       </c>
       <c r="B139" t="s">
+        <v>648</v>
+      </c>
+      <c r="C139" t="s">
         <v>649</v>
-      </c>
-      <c r="C139" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -13117,10 +13117,10 @@
         <v>206</v>
       </c>
       <c r="B140" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C140" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -13128,10 +13128,10 @@
         <v>210</v>
       </c>
       <c r="B141" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C141" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -13139,10 +13139,10 @@
         <v>720</v>
       </c>
       <c r="B142" t="s">
+        <v>652</v>
+      </c>
+      <c r="C142" t="s">
         <v>653</v>
-      </c>
-      <c r="C142" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -13150,10 +13150,10 @@
         <v>725</v>
       </c>
       <c r="B143" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C143" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -13161,10 +13161,10 @@
         <v>739</v>
       </c>
       <c r="B144" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C144" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -13172,10 +13172,10 @@
         <v>758</v>
       </c>
       <c r="B145" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C145" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -13183,10 +13183,10 @@
         <v>781</v>
       </c>
       <c r="B146" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C146" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -13194,10 +13194,10 @@
         <v>784</v>
       </c>
       <c r="B147" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C147" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -13205,10 +13205,10 @@
         <v>785</v>
       </c>
       <c r="B148" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C148" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -13216,10 +13216,10 @@
         <v>789</v>
       </c>
       <c r="B149" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C149" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -13227,10 +13227,10 @@
         <v>790</v>
       </c>
       <c r="B150" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C150" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -13238,10 +13238,10 @@
         <v>791</v>
       </c>
       <c r="B151" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C151" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -13249,10 +13249,10 @@
         <v>797</v>
       </c>
       <c r="B152" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C152" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -13260,10 +13260,10 @@
         <v>800</v>
       </c>
       <c r="B153" t="s">
+        <v>664</v>
+      </c>
+      <c r="C153" t="s">
         <v>665</v>
-      </c>
-      <c r="C153" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -13271,10 +13271,10 @@
         <v>805</v>
       </c>
       <c r="B154" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C154" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -13282,10 +13282,10 @@
         <v>813</v>
       </c>
       <c r="B155" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C155" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -13293,10 +13293,10 @@
         <v>829</v>
       </c>
       <c r="B156" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C156" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -13304,10 +13304,10 @@
         <v>835</v>
       </c>
       <c r="B157" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C157" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -13315,10 +13315,10 @@
         <v>842</v>
       </c>
       <c r="B158" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C158" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -13326,7 +13326,7 @@
         <v>843</v>
       </c>
       <c r="B159" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C159" t="s">
         <v>63</v>
@@ -13337,7 +13337,7 @@
         <v>845</v>
       </c>
       <c r="B160" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C160" t="s">
         <v>53</v>
@@ -13348,10 +13348,10 @@
         <v>853</v>
       </c>
       <c r="B161" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C161" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -13359,10 +13359,10 @@
         <v>859</v>
       </c>
       <c r="B162" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C162" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -13370,7 +13370,7 @@
         <v>861</v>
       </c>
       <c r="B163" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C163" t="s">
         <v>23</v>
@@ -13381,7 +13381,7 @@
         <v>869</v>
       </c>
       <c r="B164" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C164" t="s">
         <v>197</v>
@@ -13392,7 +13392,7 @@
         <v>872</v>
       </c>
       <c r="B165" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C165" t="s">
         <v>197</v>
@@ -13403,7 +13403,7 @@
         <v>877</v>
       </c>
       <c r="B166" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C166" t="s">
         <v>197</v>
@@ -13414,10 +13414,10 @@
         <v>880</v>
       </c>
       <c r="B167" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C167" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -13425,7 +13425,7 @@
         <v>883</v>
       </c>
       <c r="B168" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C168" t="s">
         <v>197</v>
@@ -13436,7 +13436,7 @@
         <v>884</v>
       </c>
       <c r="B169" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C169" t="s">
         <v>53</v>
@@ -13447,10 +13447,10 @@
         <v>885</v>
       </c>
       <c r="B170" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C170" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -13458,7 +13458,7 @@
         <v>889</v>
       </c>
       <c r="B171" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C171" t="s">
         <v>197</v>
@@ -13469,10 +13469,10 @@
         <v>890</v>
       </c>
       <c r="B172" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C172" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -13480,7 +13480,7 @@
         <v>891</v>
       </c>
       <c r="B173" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C173" t="s">
         <v>197</v>
@@ -13491,7 +13491,7 @@
         <v>892</v>
       </c>
       <c r="B174" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C174" t="s">
         <v>197</v>
@@ -13502,7 +13502,7 @@
         <v>893</v>
       </c>
       <c r="B175" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C175" t="s">
         <v>53</v>
@@ -13513,7 +13513,7 @@
         <v>894</v>
       </c>
       <c r="B176" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C176" t="s">
         <v>197</v>
@@ -13524,7 +13524,7 @@
         <v>898</v>
       </c>
       <c r="B177" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C177" t="s">
         <v>53</v>
@@ -13535,10 +13535,10 @@
         <v>902</v>
       </c>
       <c r="B178" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C178" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -13546,7 +13546,7 @@
         <v>905</v>
       </c>
       <c r="B179" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C179" t="s">
         <v>197</v>
@@ -13557,10 +13557,10 @@
         <v>907</v>
       </c>
       <c r="B180" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C180" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -13568,7 +13568,7 @@
         <v>908</v>
       </c>
       <c r="B181" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C181" t="s">
         <v>53</v>

--- a/kikar_hamedina/Alternative Names.xlsx
+++ b/kikar_hamedina/Alternative Names.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="795">
   <si>
     <t>id</t>
   </si>
@@ -1272,9 +1272,6 @@
     <t>ליברמן;אביגדור;Liberman;Avigdor</t>
   </si>
   <si>
-    <t>כבוד השר;השר;שר;יעקב;</t>
-  </si>
-  <si>
     <t>ליצמן;</t>
   </si>
   <si>
@@ -1305,15 +1302,9 @@
     <t>אורי אריאל;Uri Ariel</t>
   </si>
   <si>
-    <t>אורי;אריאל;כבוד השר;השר;השר אריאל;השר אורי אריאל;</t>
-  </si>
-  <si>
     <t>Gila Gamliel;</t>
   </si>
   <si>
-    <t>גילה;גמליאל;השרה;כבוד השרה;</t>
-  </si>
-  <si>
     <t>שר האוצר</t>
   </si>
   <si>
@@ -1323,18 +1314,9 @@
     <t>משה;Moshe</t>
   </si>
   <si>
-    <t>משה;Moshe;כבוד השר;השר כחלון;</t>
-  </si>
-  <si>
     <t>ארדן;Ardan;Erdan</t>
   </si>
   <si>
-    <t>גלעד;השר;כבוד השר;השר ארדן;</t>
-  </si>
-  <si>
-    <t>בוז'י;בוזי;הרצוג;Herzog;Hertzog;Isaac Hertzog;Isaac Herzog;</t>
-  </si>
-  <si>
     <t>יצחק</t>
   </si>
   <si>
@@ -1356,18 +1338,12 @@
     <t>אלקין;zeev elkin;ze'ev elkin;alkin</t>
   </si>
   <si>
-    <t>זאב;כבוד השר;השר אלקין;השר</t>
-  </si>
-  <si>
     <t>אבי דיכטר;דיכטר;Dichter;Dihter;Avi Dichter</t>
   </si>
   <si>
     <t>חסון;יואל</t>
   </si>
   <si>
-    <t>Dov Henin;Dov Hanin;Dov Khenin;Dov Khanin;</t>
-  </si>
-  <si>
     <t>דב;Dov</t>
   </si>
   <si>
@@ -1392,9 +1368,6 @@
     <t>בוגי;יעלון;בוגי יעלון;משה בוגי;Ya'lon;Yaalon;Moshe Yaalon;Moshe Ya'alon;Bogie;Bogi</t>
   </si>
   <si>
-    <t>משה;שר הבטחון;כבוד השר;השר;</t>
-  </si>
-  <si>
     <t>רוברט;Robert;Роберт</t>
   </si>
   <si>
@@ -1404,12 +1377,6 @@
     <t>ציפי</t>
   </si>
   <si>
-    <t>יריב;כבוד השר;השר יריב;השר לוין</t>
-  </si>
-  <si>
-    <t>דני;השר דני;השר דנון;כבוד השר;</t>
-  </si>
-  <si>
     <t>דנון;Danon;Dannon;</t>
   </si>
   <si>
@@ -1419,15 +1386,9 @@
     <t>אקוניס;Akonis;Akunis</t>
   </si>
   <si>
-    <t>אופיר;כבוד השר;השר אופיר;Ofir;Ophir</t>
-  </si>
-  <si>
     <t>רגב;Miri Regev;Regev</t>
   </si>
   <si>
-    <t>מירי;כבוד השרה;השרה;השרה רגב;השרה מירי;Miri</t>
-  </si>
-  <si>
     <t>אורלי;</t>
   </si>
   <si>
@@ -1515,9 +1476,6 @@
     <t>دكتور;باسل;באסל;Bassel;basel</t>
   </si>
   <si>
-    <t>גרמן;יעל;German;Yael;כבוד השרה;השרה גרמן</t>
-  </si>
-  <si>
     <t>Yael German;חברת הכנסת גרמן;ח"כ גרמן;השרה גרמן;MK German;Minister German;Member of Knesset German</t>
   </si>
   <si>
@@ -1548,9 +1506,6 @@
     <t>Meir Cohen;מאיר כוהן;השר כהן;</t>
   </si>
   <si>
-    <t>מאיר;כבוד השר;Meir</t>
-  </si>
-  <si>
     <t>Aliza Lavie;Alisa Lavie;Alissa Lavie;חברת הכנסת לביא;ח"כ לביא</t>
   </si>
   <si>
@@ -1584,9 +1539,6 @@
     <t>פירון;Piron;הרב פירון;</t>
   </si>
   <si>
-    <t>כבוד השר;השר פירון;שי;Shay;Shai;כבוד הרב;</t>
-  </si>
-  <si>
     <t>Yacov Perry;Yaakov Perry;</t>
   </si>
   <si>
@@ -1860,18 +1812,6 @@
     <t>ציפי;לבני;ליבני;ציפורה;Tzipi;Livni;ציפוש</t>
   </si>
   <si>
-    <t>צחי;Tzachi;כבוד השר;</t>
-  </si>
-  <si>
-    <t>אריה;מכלוף;כבוד השר;</t>
-  </si>
-  <si>
-    <t>כבוד השר;כץ;השר כץ;השר ישראל כץ;</t>
-  </si>
-  <si>
-    <t>כבוד השר;כץ;השר כץ;חיים</t>
-  </si>
-  <si>
     <t>הנגבי;hanegbi;Tzachi Hanegbi;</t>
   </si>
   <si>
@@ -1959,9 +1899,6 @@
     <t>ביבי;נתניהו;Bibi;Netanyahu;Prime Minister;Binyamin Netanyahu;Benjamin Netanyahu;Natanyahu;ראש הממשלה;Natanyahu;Prime Minister Netanyahu; Banjamin Netanyahu;Banjamin Netanyahu;</t>
   </si>
   <si>
-    <t>ראש ממשלה; שר החוץ; שר התקשורת; שר לשיתוף פעולה אזורי; שר הכלכלה;premier ministre;Prime Minister;Primiero Ministro</t>
-  </si>
-  <si>
     <t>בנימין (פואד) בן-אליעזר</t>
   </si>
   <si>
@@ -2223,9 +2160,6 @@
     <t>حنا;سويد;Hanna;Swaid;חנא;סויד;7na;swid;</t>
   </si>
   <si>
-    <t>יצחק;Itzhak;Isaac;כבוד השר;</t>
-  </si>
-  <si>
     <t>יצחק אהרונוביץ';ח"כ אהרונוביץ';ח"כ אהרונוביץ;חבר הכנסת אהרונוביץ';חבר הכנסת אהרונוביץ;MK Aharonovich;Member of Knesset Aharonovich;השר אהרונוביץ';השר אהרונוביץ;Minister Aharonovich</t>
   </si>
   <si>
@@ -2286,9 +2220,6 @@
     <t>Uri Orbach;ח"כ אורבך;חבר הכנסת אורבך;MK Orbach;Member of Knesset Orbach;Minister Orbach;השר אורבך;</t>
   </si>
   <si>
-    <t>אורי;כבוד השר;אורבך;Uri;Orbach</t>
-  </si>
-  <si>
     <t>Yuval Zellner;ח"כ צלנר;חבר הכנסת צלנר;MK Zellner;Member of Knesset Zellner</t>
   </si>
   <si>
@@ -2409,7 +2340,97 @@
     <t>Hillel Horowitz;</t>
   </si>
   <si>
-    <t>בנימין;Benyamin;Benjamin;BB</t>
+    <t>אריה;מכלוף;כבוד השר;אדוני השר;</t>
+  </si>
+  <si>
+    <t>צחי;Tzachi;כבוד השר;אדוני השר;</t>
+  </si>
+  <si>
+    <t>כבוד השר;אדוני השר;כץ;השר כץ;חיים</t>
+  </si>
+  <si>
+    <t>כבוד השר;אדוני השר;השר;שר;יעקב;</t>
+  </si>
+  <si>
+    <t>אורי;אריאל;כבוד השר;אדוני השר;השר;השר אריאל;השר אורי אריאל;</t>
+  </si>
+  <si>
+    <t>משה;Moshe;כבוד השר;אדוני השר;השר כחלון;</t>
+  </si>
+  <si>
+    <t>גלעד;השר;כבוד השר;אדוני השר;השר ארדן;</t>
+  </si>
+  <si>
+    <t>זאב;כבוד השר;אדוני השר;השר אלקין;השר</t>
+  </si>
+  <si>
+    <t>משה;שר הבטחון;כבוד השר;אדוני השר;השר;</t>
+  </si>
+  <si>
+    <t>יריב;כבוד השר;אדוני השר;השר יריב;השר לוין</t>
+  </si>
+  <si>
+    <t>דני;השר דני;השר דנון;כבוד השר;אדוני השר;</t>
+  </si>
+  <si>
+    <t>אופיר;כבוד השר;אדוני השר;השר אופיר;Ofir;Ophir</t>
+  </si>
+  <si>
+    <t>מאיר;כבוד השר;אדוני השר;Meir</t>
+  </si>
+  <si>
+    <t>כבוד השר;אדוני השר;השר פירון;שי;Shay;Shai;כבוד הרב;</t>
+  </si>
+  <si>
+    <t>יצחק;Itzhak;Isaac;כבוד השר;אדוני השר;</t>
+  </si>
+  <si>
+    <t>אורי;כבוד השר;אדוני השר;אורבך;Uri;Orbach</t>
+  </si>
+  <si>
+    <t>גילה;גמליאל;השרה;כבוד השרה;גבירתי השרה;</t>
+  </si>
+  <si>
+    <t>מירי;כבוד השרה;גבירתי השרה;השרה;השרה רגב;השרה מירי;Miri</t>
+  </si>
+  <si>
+    <t>גרמן;יעל;German;Yael;כבוד השרה;גבירתי השרה;השרה גרמן</t>
+  </si>
+  <si>
+    <t>Dov Henin;Dov Hanin;Dov Khenin;Dov Khanin;דוב חנין;</t>
+  </si>
+  <si>
+    <t>כבוד השר;אדוני השר;כץ;השר כץ;השר ישראל כץ;שרוליק;</t>
+  </si>
+  <si>
+    <t>;Boozi;בוז'י;בוזי;הרצוג;Herzog;Hertzog;Isaac Hertzog;Isaac Herzog;Booji;</t>
+  </si>
+  <si>
+    <t>סגנית שר במשרד החוץ;סגנית שרת החוץ;סגנית שר החוץ;</t>
+  </si>
+  <si>
+    <t>שר המדע, הטכנולוגיה והחלל</t>
+  </si>
+  <si>
+    <t>שר החינוך;שר התפוצות</t>
+  </si>
+  <si>
+    <t>שר לביטחון פנים;שר לנושאים אסטרטגיים;שר ההסברה</t>
+  </si>
+  <si>
+    <t>שר העלייה והקליטה;שר לירושלים ומורשת</t>
+  </si>
+  <si>
+    <t>ראש ממשלה;שר החוץ;שר התקשורת;שר לשיתוף פעולה אזורי;שר הכלכלה;premier ministre;Prime Minister;Primiero Ministro;ראש ממשלת ישראל;</t>
+  </si>
+  <si>
+    <t>שר התחבורה והבטיחות בדרכים;</t>
+  </si>
+  <si>
+    <t>השר לפיתוח הנגב והגליל;שר הפנים</t>
+  </si>
+  <si>
+    <t>בנימין;Benyamin;Benjamin;BB;Bebi;Bebe</t>
   </si>
 </sst>
 </file>
@@ -2762,7 +2783,7 @@
   <dimension ref="A1:H180"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2791,10 +2812,10 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G1" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="H1" t="s">
         <v>355</v>
@@ -2868,10 +2889,7 @@
         <v>353</v>
       </c>
       <c r="E5" t="s">
-        <v>424</v>
-      </c>
-      <c r="F5" t="s">
-        <v>361</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2888,10 +2906,10 @@
         <v>359</v>
       </c>
       <c r="E6" t="s">
-        <v>605</v>
+        <v>764</v>
       </c>
       <c r="F6" t="s">
-        <v>396</v>
+        <v>793</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2905,13 +2923,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="E7" t="s">
-        <v>604</v>
-      </c>
-      <c r="F7" t="s">
-        <v>362</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2925,10 +2940,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>630</v>
-      </c>
-      <c r="F8" t="s">
-        <v>363</v>
+        <v>610</v>
       </c>
       <c r="H8" t="s">
         <v>356</v>
@@ -2950,9 +2962,6 @@
       <c r="E9" t="s">
         <v>354</v>
       </c>
-      <c r="F9" t="s">
-        <v>364</v>
-      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -2965,7 +2974,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="F10" t="s">
         <v>365</v>
@@ -2988,10 +2997,10 @@
         <v>358</v>
       </c>
       <c r="E11" t="s">
-        <v>606</v>
+        <v>784</v>
       </c>
       <c r="F11" t="s">
-        <v>397</v>
+        <v>792</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -3005,10 +3014,10 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="E12" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -3022,13 +3031,13 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="E13" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="F13" t="s">
-        <v>637</v>
+        <v>791</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -3047,9 +3056,6 @@
       <c r="E14" t="s">
         <v>402</v>
       </c>
-      <c r="F14" t="s">
-        <v>366</v>
-      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -3062,7 +3068,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="H15" t="s">
         <v>356</v>
@@ -3096,7 +3102,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -3110,10 +3116,10 @@
         <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -3141,10 +3147,10 @@
         <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="E20" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -3158,10 +3164,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="E21" t="s">
-        <v>607</v>
+        <v>766</v>
       </c>
       <c r="F21" t="s">
         <v>367</v>
@@ -3178,7 +3184,7 @@
         <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -3206,10 +3212,10 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E24" t="s">
-        <v>408</v>
+        <v>767</v>
       </c>
       <c r="F24" t="s">
         <v>368</v>
@@ -3226,7 +3232,7 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H25" t="s">
         <v>356</v>
@@ -3243,10 +3249,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F26" t="s">
         <v>369</v>
@@ -3263,10 +3269,10 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F27" t="s">
         <v>370</v>
@@ -3283,10 +3289,10 @@
         <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E28" t="s">
-        <v>419</v>
+        <v>768</v>
       </c>
       <c r="F28" t="s">
         <v>371</v>
@@ -3303,10 +3309,10 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E29" t="s">
-        <v>421</v>
+        <v>780</v>
       </c>
       <c r="F29" t="s">
         <v>372</v>
@@ -3323,13 +3329,13 @@
         <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E30" t="s">
-        <v>425</v>
+        <v>769</v>
       </c>
       <c r="F30" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -3343,13 +3349,13 @@
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E31" t="s">
-        <v>427</v>
+        <v>770</v>
       </c>
       <c r="F31" t="s">
-        <v>399</v>
+        <v>789</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -3363,10 +3369,10 @@
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>428</v>
+        <v>785</v>
       </c>
       <c r="E32" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -3380,10 +3386,7 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>430</v>
-      </c>
-      <c r="F33" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="H33" t="s">
         <v>356</v>
@@ -3400,13 +3403,10 @@
         <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E34" t="s">
-        <v>431</v>
-      </c>
-      <c r="F34" t="s">
-        <v>374</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -3420,10 +3420,10 @@
         <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="E35" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -3437,13 +3437,13 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E36" t="s">
-        <v>436</v>
+        <v>771</v>
       </c>
       <c r="F36" t="s">
-        <v>400</v>
+        <v>790</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -3457,7 +3457,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -3471,10 +3471,10 @@
         <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="E38" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -3488,10 +3488,10 @@
         <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>439</v>
+        <v>783</v>
       </c>
       <c r="E39" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -3505,10 +3505,10 @@
         <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E40" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -3522,10 +3522,10 @@
         <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E41" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -3539,10 +3539,7 @@
         <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>444</v>
-      </c>
-      <c r="F42" t="s">
-        <v>375</v>
+        <v>436</v>
       </c>
       <c r="H42" t="s">
         <v>356</v>
@@ -3559,10 +3556,10 @@
         <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E43" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -3576,10 +3573,10 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E44" t="s">
-        <v>448</v>
+        <v>772</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -3593,13 +3590,13 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="E45" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F45" t="s">
-        <v>376</v>
+        <v>786</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -3613,10 +3610,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="E46" t="s">
-        <v>452</v>
+        <v>773</v>
       </c>
       <c r="F46" t="s">
         <v>377</v>
@@ -3633,10 +3630,10 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E47" t="s">
-        <v>453</v>
+        <v>774</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -3650,13 +3647,13 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="E48" t="s">
-        <v>457</v>
+        <v>775</v>
       </c>
       <c r="F48" t="s">
-        <v>378</v>
+        <v>787</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -3670,10 +3667,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E49" t="s">
-        <v>459</v>
+        <v>781</v>
       </c>
       <c r="F49" t="s">
         <v>379</v>
@@ -3690,10 +3687,10 @@
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="E50" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -3707,10 +3704,10 @@
         <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="E51" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -3724,7 +3721,7 @@
         <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="H52" t="s">
         <v>356</v>
@@ -3741,7 +3738,7 @@
         <v>69</v>
       </c>
       <c r="D53" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="H53" t="s">
         <v>356</v>
@@ -3758,10 +3755,10 @@
         <v>69</v>
       </c>
       <c r="D54" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="E54" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -3775,10 +3772,10 @@
         <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="E55" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="H55" t="s">
         <v>356</v>
@@ -3795,10 +3792,10 @@
         <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="E56" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -3812,13 +3809,10 @@
         <v>197</v>
       </c>
       <c r="D57" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="E57" t="s">
-        <v>477</v>
-      </c>
-      <c r="F57" t="s">
-        <v>380</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -3832,10 +3826,10 @@
         <v>35</v>
       </c>
       <c r="D58" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="E58" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -3849,10 +3843,10 @@
         <v>53</v>
       </c>
       <c r="D59" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="E59" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -3866,10 +3860,10 @@
         <v>53</v>
       </c>
       <c r="D60" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="F60" t="s">
-        <v>401</v>
+        <v>788</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -3883,10 +3877,10 @@
         <v>35</v>
       </c>
       <c r="D61" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="E61" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -3900,10 +3894,10 @@
         <v>35</v>
       </c>
       <c r="D62" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="E62" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -3917,10 +3911,10 @@
         <v>69</v>
       </c>
       <c r="D63" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="E63" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -3934,10 +3928,10 @@
         <v>197</v>
       </c>
       <c r="D64" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="E64" t="s">
-        <v>489</v>
+        <v>782</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -3951,10 +3945,10 @@
         <v>53</v>
       </c>
       <c r="D65" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="E65" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -3968,13 +3962,10 @@
         <v>63</v>
       </c>
       <c r="D66" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="E66" t="s">
-        <v>494</v>
-      </c>
-      <c r="F66" t="s">
-        <v>381</v>
+        <v>480</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -3988,10 +3979,10 @@
         <v>53</v>
       </c>
       <c r="D67" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="E67" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -4005,13 +3996,13 @@
         <v>197</v>
       </c>
       <c r="D68" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="E68" t="s">
-        <v>500</v>
+        <v>776</v>
       </c>
       <c r="G68" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -4025,10 +4016,10 @@
         <v>197</v>
       </c>
       <c r="D69" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="E69" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -4042,10 +4033,10 @@
         <v>197</v>
       </c>
       <c r="D70" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="E70" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -4059,10 +4050,10 @@
         <v>197</v>
       </c>
       <c r="D71" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="E71" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -4076,10 +4067,10 @@
         <v>53</v>
       </c>
       <c r="D72" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="E72" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -4093,10 +4084,10 @@
         <v>35</v>
       </c>
       <c r="D73" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="E73" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -4110,10 +4101,10 @@
         <v>35</v>
       </c>
       <c r="D74" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="E74" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -4127,10 +4118,10 @@
         <v>197</v>
       </c>
       <c r="D75" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="E75" t="s">
-        <v>512</v>
+        <v>777</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -4144,10 +4135,10 @@
         <v>197</v>
       </c>
       <c r="D76" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E76" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -4161,10 +4152,10 @@
         <v>63</v>
       </c>
       <c r="D77" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="E77" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -4178,10 +4169,10 @@
         <v>63</v>
       </c>
       <c r="D78" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="E78" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -4195,10 +4186,10 @@
         <v>35</v>
       </c>
       <c r="D79" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="E79" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -4212,10 +4203,10 @@
         <v>197</v>
       </c>
       <c r="D80" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="E80" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -4229,10 +4220,10 @@
         <v>197</v>
       </c>
       <c r="D81" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="E81" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -4246,10 +4237,10 @@
         <v>197</v>
       </c>
       <c r="D82" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="E82" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -4263,10 +4254,10 @@
         <v>35</v>
       </c>
       <c r="D83" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="E83" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -4280,13 +4271,10 @@
         <v>35</v>
       </c>
       <c r="D84" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="E84" t="s">
-        <v>529</v>
-      </c>
-      <c r="F84" t="s">
-        <v>382</v>
+        <v>513</v>
       </c>
       <c r="H84" t="s">
         <v>356</v>
@@ -4303,10 +4291,10 @@
         <v>53</v>
       </c>
       <c r="D85" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="E85" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="F85" t="s">
         <v>383</v>
@@ -4323,10 +4311,10 @@
         <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="E86" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="H86" t="s">
         <v>356</v>
@@ -4343,10 +4331,10 @@
         <v>69</v>
       </c>
       <c r="D87" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="E87" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="H87" t="s">
         <v>356</v>
@@ -4363,10 +4351,10 @@
         <v>112</v>
       </c>
       <c r="D88" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="E88" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -4380,13 +4368,10 @@
         <v>112</v>
       </c>
       <c r="D89" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="E89" t="s">
-        <v>481</v>
-      </c>
-      <c r="F89" t="s">
-        <v>384</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -4400,13 +4385,10 @@
         <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="E90" t="s">
-        <v>541</v>
-      </c>
-      <c r="F90" t="s">
-        <v>385</v>
+        <v>525</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -4420,10 +4402,10 @@
         <v>35</v>
       </c>
       <c r="D91" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="E91" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -4437,13 +4419,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="E92" t="s">
-        <v>545</v>
-      </c>
-      <c r="F92" t="s">
-        <v>386</v>
+        <v>529</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -4457,10 +4436,10 @@
         <v>112</v>
       </c>
       <c r="D93" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="E93" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -4474,10 +4453,10 @@
         <v>35</v>
       </c>
       <c r="D94" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="E94" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -4491,10 +4470,10 @@
         <v>35</v>
       </c>
       <c r="D95" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="E95" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -4508,10 +4487,10 @@
         <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="E96" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -4525,10 +4504,10 @@
         <v>69</v>
       </c>
       <c r="D97" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="E97" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -4542,10 +4521,10 @@
         <v>41</v>
       </c>
       <c r="D98" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="E98" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -4559,10 +4538,10 @@
         <v>112</v>
       </c>
       <c r="D99" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="E99" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="F99" t="s">
         <v>387</v>
@@ -4579,10 +4558,10 @@
         <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="E100" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -4596,7 +4575,7 @@
         <v>69</v>
       </c>
       <c r="D101" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="H101" t="s">
         <v>356</v>
@@ -4613,10 +4592,10 @@
         <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="E102" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -4630,10 +4609,10 @@
         <v>35</v>
       </c>
       <c r="D103" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="E103" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -4647,10 +4626,10 @@
         <v>35</v>
       </c>
       <c r="D104" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="E104" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -4664,10 +4643,10 @@
         <v>197</v>
       </c>
       <c r="D105" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="E105" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -4681,13 +4660,10 @@
         <v>112</v>
       </c>
       <c r="D106" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="E106" t="s">
-        <v>570</v>
-      </c>
-      <c r="F106" t="s">
-        <v>388</v>
+        <v>554</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -4701,10 +4677,10 @@
         <v>6</v>
       </c>
       <c r="D107" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="E107" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="F107" t="s">
         <v>389</v>
@@ -4721,10 +4697,10 @@
         <v>53</v>
       </c>
       <c r="D108" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="E108" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -4738,10 +4714,10 @@
         <v>6</v>
       </c>
       <c r="D109" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="E109" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="F109" t="s">
         <v>390</v>
@@ -4758,13 +4734,10 @@
         <v>6</v>
       </c>
       <c r="D110" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="E110" t="s">
-        <v>578</v>
-      </c>
-      <c r="F110" t="s">
-        <v>391</v>
+        <v>562</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -4778,10 +4751,10 @@
         <v>35</v>
       </c>
       <c r="D111" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="E111" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -4795,13 +4768,13 @@
         <v>35</v>
       </c>
       <c r="D112" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E112" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>935</v>
       </c>
@@ -4812,13 +4785,13 @@
         <v>35</v>
       </c>
       <c r="D113" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="E113" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>936</v>
       </c>
@@ -4829,13 +4802,13 @@
         <v>53</v>
       </c>
       <c r="D114" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="E114" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>937</v>
       </c>
@@ -4846,13 +4819,13 @@
         <v>69</v>
       </c>
       <c r="D115" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="E115" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>938</v>
       </c>
@@ -4863,13 +4836,13 @@
         <v>69</v>
       </c>
       <c r="D116" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="E116" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>939</v>
       </c>
@@ -4880,13 +4853,13 @@
         <v>112</v>
       </c>
       <c r="D117" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="E117" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>940</v>
       </c>
@@ -4897,13 +4870,13 @@
         <v>35</v>
       </c>
       <c r="D118" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="E118" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>941</v>
       </c>
@@ -4914,16 +4887,13 @@
         <v>112</v>
       </c>
       <c r="D119" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="E119" t="s">
-        <v>596</v>
-      </c>
-      <c r="F119" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>942</v>
       </c>
@@ -4934,13 +4904,13 @@
         <v>112</v>
       </c>
       <c r="D120" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="E120" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>943</v>
       </c>
@@ -4951,13 +4921,13 @@
         <v>6</v>
       </c>
       <c r="D121" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="E121" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>944</v>
       </c>
@@ -4968,13 +4938,13 @@
         <v>6</v>
       </c>
       <c r="D122" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="E122" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>945</v>
       </c>
@@ -4985,13 +4955,13 @@
         <v>6</v>
       </c>
       <c r="D123" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="E123" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>946</v>
       </c>
@@ -5002,16 +4972,13 @@
         <v>112</v>
       </c>
       <c r="D124" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="E124" t="s">
-        <v>613</v>
-      </c>
-      <c r="F124" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>948</v>
       </c>
@@ -5022,16 +4989,13 @@
         <v>69</v>
       </c>
       <c r="D125" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="E125" t="s">
-        <v>626</v>
-      </c>
-      <c r="F125" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>950</v>
       </c>
@@ -5042,13 +5006,13 @@
         <v>6</v>
       </c>
       <c r="D126" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="E126" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>951</v>
       </c>
@@ -5059,13 +5023,13 @@
         <v>41</v>
       </c>
       <c r="D127" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="E127" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>952</v>
       </c>
@@ -5076,10 +5040,10 @@
         <v>35</v>
       </c>
       <c r="D128" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="E128" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -5093,10 +5057,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="E129" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -5110,7 +5074,7 @@
         <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="G130" t="s">
         <v>356</v>
@@ -5127,10 +5091,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="E131" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -5138,16 +5102,16 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="C132" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="D132" t="s">
-        <v>694</v>
+        <v>673</v>
       </c>
       <c r="E132" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -5155,16 +5119,16 @@
         <v>63</v>
       </c>
       <c r="B133" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="C133" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="D133" t="s">
-        <v>696</v>
+        <v>675</v>
       </c>
       <c r="E133" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -5172,16 +5136,16 @@
         <v>70</v>
       </c>
       <c r="B134" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="C134" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="D134" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
       <c r="E134" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -5189,16 +5153,16 @@
         <v>77</v>
       </c>
       <c r="B135" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="C135" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="D135" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="E135" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -5206,16 +5170,16 @@
         <v>114</v>
       </c>
       <c r="B136" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="C136" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="D136" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="E136" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -5223,16 +5187,16 @@
         <v>119</v>
       </c>
       <c r="B137" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="C137" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="D137" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="E137" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -5240,16 +5204,16 @@
         <v>197</v>
       </c>
       <c r="B138" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="C138" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="D138" t="s">
-        <v>706</v>
+        <v>685</v>
       </c>
       <c r="E138" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -5257,13 +5221,13 @@
         <v>206</v>
       </c>
       <c r="B139" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="C139" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="D139" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
       <c r="G139" t="s">
         <v>356</v>
@@ -5274,13 +5238,13 @@
         <v>210</v>
       </c>
       <c r="B140" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="C140" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="D140" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="G140" t="s">
         <v>356</v>
@@ -5291,16 +5255,16 @@
         <v>720</v>
       </c>
       <c r="B141" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="C141" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="D141" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="E141" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -5308,16 +5272,16 @@
         <v>725</v>
       </c>
       <c r="B142" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="C142" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="D142" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="E142" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -5325,16 +5289,16 @@
         <v>739</v>
       </c>
       <c r="B143" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="C143" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="D143" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="E143" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -5342,16 +5306,16 @@
         <v>758</v>
       </c>
       <c r="B144" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="C144" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="D144" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
       <c r="E144" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -5359,16 +5323,16 @@
         <v>781</v>
       </c>
       <c r="B145" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="C145" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="D145" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -5376,13 +5340,13 @@
         <v>784</v>
       </c>
       <c r="B146" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="C146" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="D146" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="G146" t="s">
         <v>356</v>
@@ -5393,16 +5357,16 @@
         <v>785</v>
       </c>
       <c r="B147" t="s">
-        <v>659</v>
+        <v>638</v>
       </c>
       <c r="C147" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="D147" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="E147" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -5410,16 +5374,16 @@
         <v>789</v>
       </c>
       <c r="B148" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
       <c r="C148" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="D148" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="E148" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -5427,16 +5391,16 @@
         <v>790</v>
       </c>
       <c r="B149" t="s">
-        <v>661</v>
+        <v>640</v>
       </c>
       <c r="C149" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="D149" t="s">
-        <v>726</v>
+        <v>704</v>
       </c>
       <c r="E149" t="s">
-        <v>725</v>
+        <v>778</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -5444,16 +5408,16 @@
         <v>791</v>
       </c>
       <c r="B150" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="C150" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="D150" t="s">
-        <v>727</v>
+        <v>705</v>
       </c>
       <c r="E150" t="s">
-        <v>728</v>
+        <v>706</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -5461,16 +5425,16 @@
         <v>797</v>
       </c>
       <c r="B151" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="C151" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="D151" t="s">
-        <v>729</v>
+        <v>707</v>
       </c>
       <c r="E151" t="s">
-        <v>730</v>
+        <v>708</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -5478,16 +5442,16 @@
         <v>800</v>
       </c>
       <c r="B152" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="C152" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="D152" t="s">
-        <v>731</v>
+        <v>709</v>
       </c>
       <c r="E152" t="s">
-        <v>732</v>
+        <v>710</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -5495,16 +5459,16 @@
         <v>805</v>
       </c>
       <c r="B153" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="C153" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="D153" t="s">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="E153" t="s">
-        <v>734</v>
+        <v>712</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -5512,16 +5476,16 @@
         <v>813</v>
       </c>
       <c r="B154" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="C154" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="D154" t="s">
-        <v>736</v>
+        <v>714</v>
       </c>
       <c r="E154" t="s">
-        <v>735</v>
+        <v>713</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -5529,16 +5493,16 @@
         <v>829</v>
       </c>
       <c r="B155" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
       <c r="C155" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="D155" t="s">
-        <v>737</v>
+        <v>715</v>
       </c>
       <c r="E155" t="s">
-        <v>738</v>
+        <v>716</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -5546,16 +5510,16 @@
         <v>835</v>
       </c>
       <c r="B156" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="C156" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="D156" t="s">
-        <v>739</v>
+        <v>717</v>
       </c>
       <c r="E156" t="s">
-        <v>740</v>
+        <v>718</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -5563,16 +5527,16 @@
         <v>842</v>
       </c>
       <c r="B157" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="C157" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="D157" t="s">
-        <v>741</v>
+        <v>719</v>
       </c>
       <c r="E157" t="s">
-        <v>742</v>
+        <v>720</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -5580,16 +5544,16 @@
         <v>843</v>
       </c>
       <c r="B158" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="C158" t="s">
         <v>63</v>
       </c>
       <c r="D158" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
       <c r="E158" t="s">
-        <v>743</v>
+        <v>721</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -5597,16 +5561,16 @@
         <v>845</v>
       </c>
       <c r="B159" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="C159" t="s">
         <v>53</v>
       </c>
       <c r="D159" t="s">
-        <v>745</v>
+        <v>723</v>
       </c>
       <c r="E159" t="s">
-        <v>746</v>
+        <v>779</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -5614,16 +5578,16 @@
         <v>853</v>
       </c>
       <c r="B160" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="C160" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="D160" t="s">
-        <v>747</v>
+        <v>724</v>
       </c>
       <c r="E160" t="s">
-        <v>748</v>
+        <v>725</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -5631,16 +5595,16 @@
         <v>859</v>
       </c>
       <c r="B161" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="C161" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="D161" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
       <c r="E161" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -5648,13 +5612,13 @@
         <v>861</v>
       </c>
       <c r="B162" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="C162" t="s">
         <v>23</v>
       </c>
       <c r="D162" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="G162" t="s">
         <v>356</v>
@@ -5665,16 +5629,16 @@
         <v>869</v>
       </c>
       <c r="B163" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="C163" t="s">
         <v>197</v>
       </c>
       <c r="D163" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
       <c r="E163" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -5682,16 +5646,16 @@
         <v>872</v>
       </c>
       <c r="B164" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="C164" t="s">
         <v>197</v>
       </c>
       <c r="D164" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="E164" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -5699,16 +5663,16 @@
         <v>877</v>
       </c>
       <c r="B165" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="C165" t="s">
         <v>197</v>
       </c>
       <c r="D165" t="s">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="E165" t="s">
-        <v>757</v>
+        <v>734</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -5716,16 +5680,16 @@
         <v>880</v>
       </c>
       <c r="B166" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
       <c r="C166" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="D166" t="s">
-        <v>758</v>
+        <v>735</v>
       </c>
       <c r="E166" t="s">
-        <v>759</v>
+        <v>736</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -5733,16 +5697,16 @@
         <v>883</v>
       </c>
       <c r="B167" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="C167" t="s">
         <v>197</v>
       </c>
       <c r="D167" t="s">
-        <v>760</v>
+        <v>737</v>
       </c>
       <c r="E167" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -5750,16 +5714,16 @@
         <v>884</v>
       </c>
       <c r="B168" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="C168" t="s">
         <v>53</v>
       </c>
       <c r="D168" t="s">
-        <v>762</v>
+        <v>739</v>
       </c>
       <c r="E168" t="s">
-        <v>763</v>
+        <v>740</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -5767,16 +5731,16 @@
         <v>885</v>
       </c>
       <c r="B169" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="C169" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="D169" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
       <c r="E169" t="s">
-        <v>765</v>
+        <v>742</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -5784,16 +5748,16 @@
         <v>889</v>
       </c>
       <c r="B170" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="C170" t="s">
         <v>197</v>
       </c>
       <c r="D170" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="E170" t="s">
-        <v>767</v>
+        <v>744</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -5801,16 +5765,16 @@
         <v>890</v>
       </c>
       <c r="B171" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="C171" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="D171" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
       <c r="E171" t="s">
-        <v>768</v>
+        <v>745</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -5818,16 +5782,16 @@
         <v>891</v>
       </c>
       <c r="B172" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="C172" t="s">
         <v>197</v>
       </c>
       <c r="D172" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
       <c r="E172" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -5835,16 +5799,16 @@
         <v>892</v>
       </c>
       <c r="B173" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="C173" t="s">
         <v>197</v>
       </c>
       <c r="D173" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
       <c r="E173" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -5852,16 +5816,16 @@
         <v>893</v>
       </c>
       <c r="B174" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="C174" t="s">
         <v>53</v>
       </c>
       <c r="D174" t="s">
-        <v>774</v>
+        <v>751</v>
       </c>
       <c r="E174" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -5869,16 +5833,16 @@
         <v>894</v>
       </c>
       <c r="B175" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="C175" t="s">
         <v>197</v>
       </c>
       <c r="D175" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
       <c r="E175" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -5886,16 +5850,16 @@
         <v>898</v>
       </c>
       <c r="B176" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
       <c r="C176" t="s">
         <v>53</v>
       </c>
       <c r="D176" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
       <c r="E176" t="s">
-        <v>779</v>
+        <v>756</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -5903,16 +5867,16 @@
         <v>902</v>
       </c>
       <c r="B177" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="C177" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="D177" t="s">
-        <v>781</v>
+        <v>758</v>
       </c>
       <c r="E177" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -5920,16 +5884,16 @@
         <v>905</v>
       </c>
       <c r="B178" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
       <c r="C178" t="s">
         <v>197</v>
       </c>
       <c r="D178" t="s">
-        <v>783</v>
+        <v>760</v>
       </c>
       <c r="E178" t="s">
-        <v>782</v>
+        <v>759</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -5937,16 +5901,16 @@
         <v>907</v>
       </c>
       <c r="B179" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
       <c r="C179" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="D179" t="s">
-        <v>785</v>
+        <v>762</v>
       </c>
       <c r="G179" t="s">
-        <v>784</v>
+        <v>761</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -5954,13 +5918,13 @@
         <v>908</v>
       </c>
       <c r="B180" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="C180" t="s">
         <v>53</v>
       </c>
       <c r="D180" t="s">
-        <v>786</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -13040,10 +13004,10 @@
         <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="C133" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -13051,10 +13015,10 @@
         <v>63</v>
       </c>
       <c r="B134" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="C134" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -13062,10 +13026,10 @@
         <v>70</v>
       </c>
       <c r="B135" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="C135" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -13073,10 +13037,10 @@
         <v>77</v>
       </c>
       <c r="B136" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="C136" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -13084,10 +13048,10 @@
         <v>114</v>
       </c>
       <c r="B137" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="C137" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -13095,10 +13059,10 @@
         <v>119</v>
       </c>
       <c r="B138" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="C138" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -13106,10 +13070,10 @@
         <v>197</v>
       </c>
       <c r="B139" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="C139" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -13117,10 +13081,10 @@
         <v>206</v>
       </c>
       <c r="B140" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="C140" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -13128,10 +13092,10 @@
         <v>210</v>
       </c>
       <c r="B141" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="C141" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -13139,10 +13103,10 @@
         <v>720</v>
       </c>
       <c r="B142" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="C142" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -13150,10 +13114,10 @@
         <v>725</v>
       </c>
       <c r="B143" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="C143" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -13161,10 +13125,10 @@
         <v>739</v>
       </c>
       <c r="B144" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="C144" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -13172,10 +13136,10 @@
         <v>758</v>
       </c>
       <c r="B145" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="C145" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -13183,10 +13147,10 @@
         <v>781</v>
       </c>
       <c r="B146" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="C146" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -13194,10 +13158,10 @@
         <v>784</v>
       </c>
       <c r="B147" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="C147" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -13205,10 +13169,10 @@
         <v>785</v>
       </c>
       <c r="B148" t="s">
-        <v>659</v>
+        <v>638</v>
       </c>
       <c r="C148" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -13216,10 +13180,10 @@
         <v>789</v>
       </c>
       <c r="B149" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
       <c r="C149" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -13227,10 +13191,10 @@
         <v>790</v>
       </c>
       <c r="B150" t="s">
-        <v>661</v>
+        <v>640</v>
       </c>
       <c r="C150" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -13238,10 +13202,10 @@
         <v>791</v>
       </c>
       <c r="B151" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="C151" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -13249,10 +13213,10 @@
         <v>797</v>
       </c>
       <c r="B152" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="C152" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -13260,10 +13224,10 @@
         <v>800</v>
       </c>
       <c r="B153" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="C153" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -13271,10 +13235,10 @@
         <v>805</v>
       </c>
       <c r="B154" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="C154" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -13282,10 +13246,10 @@
         <v>813</v>
       </c>
       <c r="B155" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="C155" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -13293,10 +13257,10 @@
         <v>829</v>
       </c>
       <c r="B156" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
       <c r="C156" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -13304,10 +13268,10 @@
         <v>835</v>
       </c>
       <c r="B157" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="C157" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -13315,10 +13279,10 @@
         <v>842</v>
       </c>
       <c r="B158" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="C158" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -13326,7 +13290,7 @@
         <v>843</v>
       </c>
       <c r="B159" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="C159" t="s">
         <v>63</v>
@@ -13337,7 +13301,7 @@
         <v>845</v>
       </c>
       <c r="B160" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="C160" t="s">
         <v>53</v>
@@ -13348,10 +13312,10 @@
         <v>853</v>
       </c>
       <c r="B161" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="C161" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -13359,10 +13323,10 @@
         <v>859</v>
       </c>
       <c r="B162" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="C162" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -13370,7 +13334,7 @@
         <v>861</v>
       </c>
       <c r="B163" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="C163" t="s">
         <v>23</v>
@@ -13381,7 +13345,7 @@
         <v>869</v>
       </c>
       <c r="B164" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="C164" t="s">
         <v>197</v>
@@ -13392,7 +13356,7 @@
         <v>872</v>
       </c>
       <c r="B165" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="C165" t="s">
         <v>197</v>
@@ -13403,7 +13367,7 @@
         <v>877</v>
       </c>
       <c r="B166" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="C166" t="s">
         <v>197</v>
@@ -13414,10 +13378,10 @@
         <v>880</v>
       </c>
       <c r="B167" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
       <c r="C167" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -13425,7 +13389,7 @@
         <v>883</v>
       </c>
       <c r="B168" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="C168" t="s">
         <v>197</v>
@@ -13436,7 +13400,7 @@
         <v>884</v>
       </c>
       <c r="B169" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="C169" t="s">
         <v>53</v>
@@ -13447,10 +13411,10 @@
         <v>885</v>
       </c>
       <c r="B170" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="C170" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -13458,7 +13422,7 @@
         <v>889</v>
       </c>
       <c r="B171" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="C171" t="s">
         <v>197</v>
@@ -13469,10 +13433,10 @@
         <v>890</v>
       </c>
       <c r="B172" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="C172" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -13480,7 +13444,7 @@
         <v>891</v>
       </c>
       <c r="B173" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="C173" t="s">
         <v>197</v>
@@ -13491,7 +13455,7 @@
         <v>892</v>
       </c>
       <c r="B174" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="C174" t="s">
         <v>197</v>
@@ -13502,7 +13466,7 @@
         <v>893</v>
       </c>
       <c r="B175" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="C175" t="s">
         <v>53</v>
@@ -13513,7 +13477,7 @@
         <v>894</v>
       </c>
       <c r="B176" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="C176" t="s">
         <v>197</v>
@@ -13524,7 +13488,7 @@
         <v>898</v>
       </c>
       <c r="B177" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
       <c r="C177" t="s">
         <v>53</v>
@@ -13535,10 +13499,10 @@
         <v>902</v>
       </c>
       <c r="B178" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="C178" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -13546,7 +13510,7 @@
         <v>905</v>
       </c>
       <c r="B179" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
       <c r="C179" t="s">
         <v>197</v>
@@ -13557,10 +13521,10 @@
         <v>907</v>
       </c>
       <c r="B180" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
       <c r="C180" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -13568,7 +13532,7 @@
         <v>908</v>
       </c>
       <c r="B181" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="C181" t="s">
         <v>53</v>
